--- a/Experiments/Figure 6/3-2-2024 2430 2620 plating/3-2-2024 Plating.xlsx
+++ b/Experiments/Figure 6/3-2-2024 2430 2620 plating/3-2-2024 Plating.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Helena\Documents\Helena\Duke\You Lab\Projects\Dosing Project\Experiments\2024 Population Composition\3-2-2024 2430 2620 plating\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70DFFACA-960E-4959-B360-E2A2A856752E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{194CFB2F-744E-49F7-BEA6-93E5CEE14E30}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{913E35F3-A054-4690-A30A-1DF2F3FCA5B8}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="649" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="651" uniqueCount="52">
   <si>
     <t>cfu/mL</t>
   </si>
@@ -187,6 +187,12 @@
   </si>
   <si>
     <t>Strain</t>
+  </si>
+  <si>
+    <t>STDEV</t>
+  </si>
+  <si>
+    <t>SEM</t>
   </si>
 </sst>
 </file>
@@ -8666,7 +8672,7 @@
   <dimension ref="A1:AX163"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="S1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="AO41" sqref="AB2:AO41"/>
+      <selection activeCell="AP53" sqref="AP53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -13866,6 +13872,12 @@
       <c r="AK43" s="1" t="s">
         <v>45</v>
       </c>
+      <c r="AL43" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AM43" s="1" t="s">
+        <v>51</v>
+      </c>
     </row>
     <row r="44" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A44" s="1">
@@ -13968,6 +13980,9 @@
       <c r="AK44" s="1">
         <v>0.97520661157024791</v>
       </c>
+      <c r="AM44" s="1">
+        <v>6.5219429117914285E-2</v>
+      </c>
     </row>
     <row r="45" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A45" s="1">
@@ -14082,6 +14097,9 @@
       <c r="AK45" s="1">
         <v>0</v>
       </c>
+      <c r="AM45" s="1">
+        <v>0.14629795472825119</v>
+      </c>
     </row>
     <row r="46" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A46" s="1">
@@ -14184,6 +14202,9 @@
       <c r="AK46" s="1">
         <v>0</v>
       </c>
+      <c r="AM46" s="1">
+        <v>3.0413194889743971E-2</v>
+      </c>
     </row>
     <row r="47" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A47" s="1">
@@ -14302,6 +14323,14 @@
         <f>1-AI47</f>
         <v>0.69349598942774793</v>
       </c>
+      <c r="AL47" s="3">
+        <f>_xlfn.AGGREGATE(7, 7, AM6:AM8)</f>
+        <v>4.8961293471810274E-2</v>
+      </c>
+      <c r="AM47" s="1">
+        <f>AL47/3</f>
+        <v>1.6320431157270093E-2</v>
+      </c>
     </row>
     <row r="48" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A48" s="1">
@@ -14408,8 +14437,16 @@
         <f t="shared" ref="AK48:AK58" si="28">1-AI48</f>
         <v>0.48593100198717554</v>
       </c>
+      <c r="AL48" s="3">
+        <f>_xlfn.AGGREGATE(7, 7, AM9:AM11)</f>
+        <v>3.768541763990748E-2</v>
+      </c>
+      <c r="AM48" s="1">
+        <f t="shared" ref="AM48:AM58" si="29">AL48/3</f>
+        <v>1.2561805879969161E-2</v>
+      </c>
     </row>
-    <row r="49" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A49" s="1">
         <v>24</v>
       </c>
@@ -14526,8 +14563,16 @@
         <f t="shared" si="28"/>
         <v>0.15707762513632018</v>
       </c>
+      <c r="AL49" s="3">
+        <f>_xlfn.AGGREGATE(7, 7, AM12,AM17,AM22)</f>
+        <v>1.5907116174588794E-2</v>
+      </c>
+      <c r="AM49" s="1">
+        <f t="shared" si="29"/>
+        <v>5.3023720581962643E-3</v>
+      </c>
     </row>
-    <row r="50" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A50" s="1">
         <v>24</v>
       </c>
@@ -14617,7 +14662,7 @@
         <v>0</v>
       </c>
       <c r="AH50">
-        <f t="shared" ref="AH50:AH53" si="29">_xlfn.AGGREGATE(1, 6, AI13,AI18,AI23)</f>
+        <f t="shared" ref="AH50:AH53" si="30">_xlfn.AGGREGATE(1, 6, AI13,AI18,AI23)</f>
         <v>1405000000</v>
       </c>
       <c r="AI50" s="3">
@@ -14632,8 +14677,16 @@
         <f t="shared" si="28"/>
         <v>0.83906899189584705</v>
       </c>
+      <c r="AL50" s="3">
+        <f>_xlfn.AGGREGATE(7, 7, AM13,AM18,AM23)</f>
+        <v>3.8643797520028146E-2</v>
+      </c>
+      <c r="AM50" s="1">
+        <f t="shared" si="29"/>
+        <v>1.2881265840009383E-2</v>
+      </c>
     </row>
-    <row r="51" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A51" s="1">
         <v>24</v>
       </c>
@@ -14735,7 +14788,7 @@
         <v>0</v>
       </c>
       <c r="AH51">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>865000000</v>
       </c>
       <c r="AI51" s="3">
@@ -14750,8 +14803,16 @@
         <f t="shared" si="28"/>
         <v>0.51590267935941592</v>
       </c>
+      <c r="AL51" s="3">
+        <f>_xlfn.AGGREGATE(7, 7, AM14,AM19,AM24)</f>
+        <v>4.716844794241834E-2</v>
+      </c>
+      <c r="AM51" s="1">
+        <f t="shared" si="29"/>
+        <v>1.5722815980806115E-2</v>
+      </c>
     </row>
-    <row r="52" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A52" s="1">
         <v>24</v>
       </c>
@@ -14841,7 +14902,7 @@
         <v>2</v>
       </c>
       <c r="AH52">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>371500000</v>
       </c>
       <c r="AI52" s="3">
@@ -14856,8 +14917,16 @@
         <f t="shared" si="28"/>
         <v>0.99763947180194401</v>
       </c>
+      <c r="AL52" s="3">
+        <f>_xlfn.AGGREGATE(7, 7, AM15,AM20,AM25)</f>
+        <v>0.21356472925931144</v>
+      </c>
+      <c r="AM52" s="1">
+        <f t="shared" si="29"/>
+        <v>7.1188243086437147E-2</v>
+      </c>
     </row>
-    <row r="53" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A53" s="1">
         <v>24</v>
       </c>
@@ -14959,7 +15028,7 @@
         <v>4</v>
       </c>
       <c r="AH53">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>429666666.66666669</v>
       </c>
       <c r="AI53" s="3">
@@ -14974,8 +15043,16 @@
         <f t="shared" si="28"/>
         <v>1.0001759875908691</v>
       </c>
+      <c r="AL53" s="3">
+        <f>_xlfn.AGGREGATE(7, 7, AM16,AM21,AM26)</f>
+        <v>0.1063127032705555</v>
+      </c>
+      <c r="AM53" s="1">
+        <f t="shared" si="29"/>
+        <v>3.5437567756851834E-2</v>
+      </c>
     </row>
-    <row r="54" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A54" s="1">
         <v>24</v>
       </c>
@@ -15080,8 +15157,16 @@
         <f t="shared" si="28"/>
         <v>0.35694175458881328</v>
       </c>
+      <c r="AL54" s="3">
+        <f>_xlfn.AGGREGATE(7, 7, AM27,AM32,AM37)</f>
+        <v>6.0383389234401008E-2</v>
+      </c>
+      <c r="AM54" s="1">
+        <f t="shared" si="29"/>
+        <v>2.0127796411467003E-2</v>
+      </c>
     </row>
-    <row r="55" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A55" s="1">
         <v>24</v>
       </c>
@@ -15183,7 +15268,7 @@
         <v>0</v>
       </c>
       <c r="AH55">
-        <f t="shared" ref="AH55:AH58" si="30">_xlfn.AGGREGATE(1, 6, AI28,AI33,AI38)</f>
+        <f t="shared" ref="AH55:AH58" si="31">_xlfn.AGGREGATE(1, 6, AI28,AI33,AI38)</f>
         <v>1438333333.3333333</v>
       </c>
       <c r="AI55" s="3">
@@ -15198,8 +15283,16 @@
         <f t="shared" si="28"/>
         <v>0.83993001659356759</v>
       </c>
+      <c r="AL55" s="3">
+        <f>_xlfn.AGGREGATE(7, 7, AM28,AM33,AM38)</f>
+        <v>0.1911150207216796</v>
+      </c>
+      <c r="AM55" s="1">
+        <f t="shared" si="29"/>
+        <v>6.3705006907226538E-2</v>
+      </c>
     </row>
-    <row r="56" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A56" s="1">
         <v>24</v>
       </c>
@@ -15289,7 +15382,7 @@
         <v>0</v>
       </c>
       <c r="AH56">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>2220000000</v>
       </c>
       <c r="AI56" s="3">
@@ -15304,8 +15397,16 @@
         <f t="shared" si="28"/>
         <v>0.68383991894630192</v>
       </c>
+      <c r="AL56" s="3">
+        <f>_xlfn.AGGREGATE(7, 7, AM29,AM34,AM39)</f>
+        <v>0.24634819793082824</v>
+      </c>
+      <c r="AM56" s="1">
+        <f t="shared" si="29"/>
+        <v>8.2116065976942751E-2</v>
+      </c>
     </row>
-    <row r="57" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A57" s="1">
         <v>24</v>
       </c>
@@ -15407,7 +15508,7 @@
         <v>2</v>
       </c>
       <c r="AH57">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>860000000</v>
       </c>
       <c r="AI57" s="3">
@@ -15422,8 +15523,16 @@
         <f t="shared" si="28"/>
         <v>1.8021484688151013E-3</v>
       </c>
+      <c r="AL57" s="3">
+        <f>_xlfn.AGGREGATE(7, 7, AM30,AM35,AM40)</f>
+        <v>1.0527905467699302E-3</v>
+      </c>
+      <c r="AM57" s="1">
+        <f>AL57/3</f>
+        <v>3.5093018225664337E-4</v>
+      </c>
     </row>
-    <row r="58" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A58" s="1">
         <v>24</v>
       </c>
@@ -15513,7 +15622,7 @@
         <v>4</v>
       </c>
       <c r="AH58">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>768333333.33333337</v>
       </c>
       <c r="AI58" s="3">
@@ -15528,8 +15637,16 @@
         <f t="shared" si="28"/>
         <v>3.2979078060945133E-3</v>
       </c>
+      <c r="AL58" s="3">
+        <f>_xlfn.AGGREGATE(7, 7, AM31,AM36,AM41)</f>
+        <v>2.4971652397261031E-3</v>
+      </c>
+      <c r="AM58" s="1">
+        <f t="shared" si="29"/>
+        <v>8.3238841324203433E-4</v>
+      </c>
     </row>
-    <row r="59" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A59" s="1">
         <v>24</v>
       </c>
@@ -15613,7 +15730,7 @@
         <v>140000000</v>
       </c>
     </row>
-    <row r="60" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A60" s="1">
         <v>24</v>
       </c>
@@ -15685,7 +15802,7 @@
         <v>1050000000</v>
       </c>
     </row>
-    <row r="61" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A61" s="1">
         <v>24</v>
       </c>
@@ -15769,7 +15886,7 @@
         <v>35000000</v>
       </c>
     </row>
-    <row r="62" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A62" s="1">
         <v>24</v>
       </c>
@@ -15841,7 +15958,7 @@
         <v>927500000</v>
       </c>
     </row>
-    <row r="63" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A63" s="1">
         <v>24</v>
       </c>
@@ -15925,7 +16042,7 @@
         <v>135000000</v>
       </c>
     </row>
-    <row r="64" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A64" s="1">
         <v>24</v>
       </c>
@@ -16463,7 +16580,7 @@
         <v>0</v>
       </c>
       <c r="W70" s="1">
-        <f t="shared" ref="W70:W80" si="31">_xlfn.AGGREGATE(1, 6, P70:U70)</f>
+        <f t="shared" ref="W70:W80" si="32">_xlfn.AGGREGATE(1, 6, P70:U70)</f>
         <v>752500000</v>
       </c>
     </row>
@@ -16535,7 +16652,7 @@
         <v>0</v>
       </c>
       <c r="W71" s="1">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>1242500000</v>
       </c>
       <c r="X71" s="1">
@@ -16619,7 +16736,7 @@
         <v>0</v>
       </c>
       <c r="W72" s="1">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>733333333.33333337</v>
       </c>
     </row>
@@ -16691,7 +16808,7 @@
         <v>10000000000</v>
       </c>
       <c r="W73" s="1">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>3920000000</v>
       </c>
       <c r="X73" s="1">
@@ -16775,7 +16892,7 @@
         <v>0</v>
       </c>
       <c r="W74" s="1">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>1155000000</v>
       </c>
       <c r="AL74" s="2"/>
@@ -16848,7 +16965,7 @@
         <v>10000000000</v>
       </c>
       <c r="W75" s="1">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>6200000000</v>
       </c>
       <c r="X75" s="1">
@@ -16932,7 +17049,7 @@
         <v>0</v>
       </c>
       <c r="W76" s="1">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>1345000000</v>
       </c>
     </row>
@@ -17004,7 +17121,7 @@
         <v>0</v>
       </c>
       <c r="W77" s="1">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>280000000</v>
       </c>
       <c r="X77" s="1">
@@ -17064,31 +17181,31 @@
         <v>0</v>
       </c>
       <c r="P78" s="1" t="e">
-        <f t="shared" ref="P78:P80" si="32">I78*100*10^(-1*$I$2)</f>
+        <f t="shared" ref="P78:P80" si="33">I78*100*10^(-1*$I$2)</f>
         <v>#VALUE!</v>
       </c>
       <c r="Q78" s="1" t="e">
-        <f t="shared" ref="Q78:Q80" si="33">J78*100*10^(-1*$J$2)</f>
+        <f t="shared" ref="Q78:Q80" si="34">J78*100*10^(-1*$J$2)</f>
         <v>#VALUE!</v>
       </c>
       <c r="R78" s="1">
-        <f t="shared" ref="R78:R80" si="34">K78*100*10^(-1*$K$2)</f>
+        <f t="shared" ref="R78:R80" si="35">K78*100*10^(-1*$K$2)</f>
         <v>900000000</v>
       </c>
       <c r="S78" s="1">
-        <f t="shared" ref="S78:S80" si="35">L78*100*10^(-1*$L$2)</f>
+        <f t="shared" ref="S78:S80" si="36">L78*100*10^(-1*$L$2)</f>
         <v>1000000000</v>
       </c>
       <c r="T78" s="1">
-        <f t="shared" ref="T78:T80" si="36">M78*100*10^(-1*$M$2)</f>
+        <f t="shared" ref="T78:T80" si="37">M78*100*10^(-1*$M$2)</f>
         <v>0</v>
       </c>
       <c r="U78" s="1">
-        <f t="shared" ref="U78:U80" si="37">N78*100*10^(-1*$N$2)</f>
+        <f t="shared" ref="U78:U80" si="38">N78*100*10^(-1*$N$2)</f>
         <v>0</v>
       </c>
       <c r="W78" s="1">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>475000000</v>
       </c>
     </row>
@@ -17136,31 +17253,31 @@
         <v>0</v>
       </c>
       <c r="P79" s="1" t="e">
+        <f t="shared" si="33"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="Q79" s="1" t="e">
+        <f t="shared" si="34"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="R79" s="1">
+        <f t="shared" si="35"/>
+        <v>870000000</v>
+      </c>
+      <c r="S79" s="1">
+        <f t="shared" si="36"/>
+        <v>200000000</v>
+      </c>
+      <c r="T79" s="1">
+        <f t="shared" si="37"/>
+        <v>1000000000</v>
+      </c>
+      <c r="U79" s="1">
+        <f t="shared" si="38"/>
+        <v>0</v>
+      </c>
+      <c r="W79" s="1">
         <f t="shared" si="32"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="Q79" s="1" t="e">
-        <f t="shared" si="33"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="R79" s="1">
-        <f t="shared" si="34"/>
-        <v>870000000</v>
-      </c>
-      <c r="S79" s="1">
-        <f t="shared" si="35"/>
-        <v>200000000</v>
-      </c>
-      <c r="T79" s="1">
-        <f t="shared" si="36"/>
-        <v>1000000000</v>
-      </c>
-      <c r="U79" s="1">
-        <f t="shared" si="37"/>
-        <v>0</v>
-      </c>
-      <c r="W79" s="1">
-        <f t="shared" si="31"/>
         <v>517500000</v>
       </c>
       <c r="X79" s="1">
@@ -17221,31 +17338,31 @@
         <v>3</v>
       </c>
       <c r="P80" s="1" t="e">
+        <f t="shared" si="33"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="Q80" s="1" t="e">
+        <f t="shared" si="34"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="R80" s="1" t="e">
+        <f t="shared" si="35"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="S80" s="1" t="e">
+        <f t="shared" si="36"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="T80" s="1" t="e">
+        <f t="shared" si="37"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="U80" s="1" t="e">
+        <f t="shared" si="38"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="W80" s="1" t="e">
         <f t="shared" si="32"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="Q80" s="1" t="e">
-        <f t="shared" si="33"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="R80" s="1" t="e">
-        <f t="shared" si="34"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="S80" s="1" t="e">
-        <f t="shared" si="35"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="T80" s="1" t="e">
-        <f t="shared" si="36"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="U80" s="1" t="e">
-        <f t="shared" si="37"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="W80" s="1" t="e">
-        <f t="shared" si="31"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -17442,11 +17559,11 @@
         <v>1</v>
       </c>
       <c r="P85" s="1" t="e">
-        <f t="shared" ref="P85:P99" si="38">I85*100*10^(-1*$I$2)</f>
+        <f t="shared" ref="P85:P99" si="39">I85*100*10^(-1*$I$2)</f>
         <v>#VALUE!</v>
       </c>
       <c r="Q85" s="1" t="e">
-        <f t="shared" ref="Q85:Q148" si="39">J85*100*10^(-1*$J$2)</f>
+        <f t="shared" ref="Q85:Q148" si="40">J85*100*10^(-1*$J$2)</f>
         <v>#VALUE!</v>
       </c>
       <c r="R85" s="1">
@@ -17514,11 +17631,11 @@
         <v>0</v>
       </c>
       <c r="P86" s="1">
-        <f t="shared" si="38"/>
+        <f t="shared" si="39"/>
         <v>0</v>
       </c>
       <c r="Q86" s="1">
-        <f t="shared" si="39"/>
+        <f t="shared" si="40"/>
         <v>0</v>
       </c>
       <c r="R86" s="1">
@@ -17598,11 +17715,11 @@
         <v>0</v>
       </c>
       <c r="P87" s="1">
-        <f t="shared" si="38"/>
+        <f t="shared" si="39"/>
         <v>0</v>
       </c>
       <c r="Q87" s="1">
-        <f t="shared" si="39"/>
+        <f t="shared" si="40"/>
         <v>0</v>
       </c>
       <c r="R87" s="1">
@@ -17622,7 +17739,7 @@
         <v>0</v>
       </c>
       <c r="W87" s="1">
-        <f t="shared" ref="W87:W150" si="40">_xlfn.AGGREGATE(1, 6, P87:U87)</f>
+        <f t="shared" ref="W87:W150" si="41">_xlfn.AGGREGATE(1, 6, P87:U87)</f>
         <v>0</v>
       </c>
     </row>
@@ -17670,31 +17787,31 @@
         <v>0</v>
       </c>
       <c r="P88" s="1">
-        <f t="shared" si="38"/>
+        <f t="shared" si="39"/>
         <v>0</v>
       </c>
       <c r="Q88" s="1">
-        <f t="shared" si="39"/>
+        <f t="shared" si="40"/>
         <v>0</v>
       </c>
       <c r="R88" s="1">
-        <f t="shared" ref="R88:R91" si="41">K88*100*10^(-1*$K$2)</f>
+        <f t="shared" ref="R88:R91" si="42">K88*100*10^(-1*$K$2)</f>
         <v>0</v>
       </c>
       <c r="S88" s="1">
-        <f t="shared" ref="S88:S151" si="42">L88*100*10^(-1*$L$2)</f>
+        <f t="shared" ref="S88:S151" si="43">L88*100*10^(-1*$L$2)</f>
         <v>0</v>
       </c>
       <c r="T88" s="1">
-        <f t="shared" ref="T88:T151" si="43">M88*100*10^(-1*$M$2)</f>
+        <f t="shared" ref="T88:T151" si="44">M88*100*10^(-1*$M$2)</f>
         <v>0</v>
       </c>
       <c r="U88" s="1">
-        <f t="shared" ref="U88:U151" si="44">N88*100*10^(-1*$N$2)</f>
+        <f t="shared" ref="U88:U151" si="45">N88*100*10^(-1*$N$2)</f>
         <v>0</v>
       </c>
       <c r="W88" s="1">
-        <f t="shared" si="40"/>
+        <f t="shared" si="41"/>
         <v>0</v>
       </c>
       <c r="X88" s="1">
@@ -17754,31 +17871,31 @@
         <v>0</v>
       </c>
       <c r="P89" s="1">
-        <f t="shared" si="38"/>
+        <f t="shared" si="39"/>
         <v>0</v>
       </c>
       <c r="Q89" s="1">
-        <f t="shared" si="39"/>
+        <f t="shared" si="40"/>
         <v>0</v>
       </c>
       <c r="R89" s="1">
+        <f t="shared" si="42"/>
+        <v>0</v>
+      </c>
+      <c r="S89" s="1">
+        <f t="shared" si="43"/>
+        <v>0</v>
+      </c>
+      <c r="T89" s="1">
+        <f t="shared" si="44"/>
+        <v>0</v>
+      </c>
+      <c r="U89" s="1">
+        <f t="shared" si="45"/>
+        <v>0</v>
+      </c>
+      <c r="W89" s="1">
         <f t="shared" si="41"/>
-        <v>0</v>
-      </c>
-      <c r="S89" s="1">
-        <f t="shared" si="42"/>
-        <v>0</v>
-      </c>
-      <c r="T89" s="1">
-        <f t="shared" si="43"/>
-        <v>0</v>
-      </c>
-      <c r="U89" s="1">
-        <f t="shared" si="44"/>
-        <v>0</v>
-      </c>
-      <c r="W89" s="1">
-        <f t="shared" si="40"/>
         <v>0</v>
       </c>
     </row>
@@ -17826,31 +17943,31 @@
         <v>0</v>
       </c>
       <c r="P90" s="1" t="e">
-        <f t="shared" si="38"/>
+        <f t="shared" si="39"/>
         <v>#VALUE!</v>
       </c>
       <c r="Q90" s="1" t="e">
-        <f t="shared" si="39"/>
+        <f t="shared" si="40"/>
         <v>#VALUE!</v>
       </c>
       <c r="R90" s="1">
+        <f t="shared" si="42"/>
+        <v>700000000</v>
+      </c>
+      <c r="S90" s="1">
+        <f t="shared" si="43"/>
+        <v>500000000</v>
+      </c>
+      <c r="T90" s="1">
+        <f t="shared" si="44"/>
+        <v>1000000000</v>
+      </c>
+      <c r="U90" s="1">
+        <f t="shared" si="45"/>
+        <v>0</v>
+      </c>
+      <c r="W90" s="1">
         <f t="shared" si="41"/>
-        <v>700000000</v>
-      </c>
-      <c r="S90" s="1">
-        <f t="shared" si="42"/>
-        <v>500000000</v>
-      </c>
-      <c r="T90" s="1">
-        <f t="shared" si="43"/>
-        <v>1000000000</v>
-      </c>
-      <c r="U90" s="1">
-        <f t="shared" si="44"/>
-        <v>0</v>
-      </c>
-      <c r="W90" s="1">
-        <f t="shared" si="40"/>
         <v>550000000</v>
       </c>
       <c r="X90" s="1">
@@ -17910,31 +18027,31 @@
         <v>0</v>
       </c>
       <c r="P91" s="1" t="e">
-        <f t="shared" si="38"/>
+        <f t="shared" si="39"/>
         <v>#VALUE!</v>
       </c>
       <c r="Q91" s="1" t="e">
-        <f t="shared" si="39"/>
+        <f t="shared" si="40"/>
         <v>#VALUE!</v>
       </c>
       <c r="R91" s="1">
+        <f t="shared" si="42"/>
+        <v>920000000</v>
+      </c>
+      <c r="S91" s="1">
+        <f t="shared" si="43"/>
+        <v>1100000000</v>
+      </c>
+      <c r="T91" s="1">
+        <f t="shared" si="44"/>
+        <v>0</v>
+      </c>
+      <c r="U91" s="1">
+        <f t="shared" si="45"/>
+        <v>0</v>
+      </c>
+      <c r="W91" s="1">
         <f t="shared" si="41"/>
-        <v>920000000</v>
-      </c>
-      <c r="S91" s="1">
-        <f t="shared" si="42"/>
-        <v>1100000000</v>
-      </c>
-      <c r="T91" s="1">
-        <f t="shared" si="43"/>
-        <v>0</v>
-      </c>
-      <c r="U91" s="1">
-        <f t="shared" si="44"/>
-        <v>0</v>
-      </c>
-      <c r="W91" s="1">
-        <f t="shared" si="40"/>
         <v>505000000</v>
       </c>
     </row>
@@ -17982,11 +18099,11 @@
         <v>0</v>
       </c>
       <c r="P92" s="1" t="e">
-        <f t="shared" si="38"/>
+        <f t="shared" si="39"/>
         <v>#VALUE!</v>
       </c>
       <c r="Q92" s="1" t="e">
-        <f t="shared" si="39"/>
+        <f t="shared" si="40"/>
         <v>#VALUE!</v>
       </c>
       <c r="R92" s="1">
@@ -17994,19 +18111,19 @@
         <v>810000000</v>
       </c>
       <c r="S92" s="1">
-        <f t="shared" si="42"/>
+        <f t="shared" si="43"/>
         <v>700000000</v>
       </c>
       <c r="T92" s="1">
-        <f t="shared" si="43"/>
+        <f t="shared" si="44"/>
         <v>1000000000</v>
       </c>
       <c r="U92" s="1">
-        <f t="shared" si="44"/>
+        <f t="shared" si="45"/>
         <v>0</v>
       </c>
       <c r="W92" s="1">
-        <f t="shared" si="40"/>
+        <f t="shared" si="41"/>
         <v>627500000</v>
       </c>
       <c r="X92" s="1">
@@ -18066,31 +18183,31 @@
         <v>0</v>
       </c>
       <c r="P93" s="1" t="e">
-        <f t="shared" si="38"/>
+        <f t="shared" si="39"/>
         <v>#VALUE!</v>
       </c>
       <c r="Q93" s="1" t="e">
-        <f t="shared" si="39"/>
+        <f t="shared" si="40"/>
         <v>#VALUE!</v>
       </c>
       <c r="R93" s="1">
-        <f t="shared" ref="R93:R156" si="45">K93*100*10^(-1*$K$2)</f>
+        <f t="shared" ref="R93:R156" si="46">K93*100*10^(-1*$K$2)</f>
         <v>730000000</v>
       </c>
       <c r="S93" s="1">
-        <f t="shared" si="42"/>
+        <f t="shared" si="43"/>
         <v>1400000000</v>
       </c>
       <c r="T93" s="1">
-        <f t="shared" si="43"/>
+        <f t="shared" si="44"/>
         <v>0</v>
       </c>
       <c r="U93" s="1">
-        <f t="shared" si="44"/>
+        <f t="shared" si="45"/>
         <v>0</v>
       </c>
       <c r="W93" s="1">
-        <f t="shared" si="40"/>
+        <f t="shared" si="41"/>
         <v>532500000</v>
       </c>
     </row>
@@ -18138,31 +18255,31 @@
         <v>0</v>
       </c>
       <c r="P94" s="1" t="e">
-        <f t="shared" si="38"/>
+        <f t="shared" si="39"/>
         <v>#VALUE!</v>
       </c>
       <c r="Q94" s="1" t="e">
-        <f t="shared" si="39"/>
+        <f t="shared" si="40"/>
         <v>#VALUE!</v>
       </c>
       <c r="R94" s="1">
+        <f t="shared" si="46"/>
+        <v>900000000</v>
+      </c>
+      <c r="S94" s="1">
+        <f t="shared" si="43"/>
+        <v>900000000</v>
+      </c>
+      <c r="T94" s="1">
+        <f t="shared" si="44"/>
+        <v>1000000000</v>
+      </c>
+      <c r="U94" s="1">
         <f t="shared" si="45"/>
-        <v>900000000</v>
-      </c>
-      <c r="S94" s="1">
-        <f t="shared" si="42"/>
-        <v>900000000</v>
-      </c>
-      <c r="T94" s="1">
-        <f t="shared" si="43"/>
-        <v>1000000000</v>
-      </c>
-      <c r="U94" s="1">
-        <f t="shared" si="44"/>
         <v>0</v>
       </c>
       <c r="W94" s="1">
-        <f t="shared" si="40"/>
+        <f t="shared" si="41"/>
         <v>700000000</v>
       </c>
       <c r="X94" s="1">
@@ -18222,31 +18339,31 @@
         <v>0</v>
       </c>
       <c r="P95" s="1" t="e">
-        <f t="shared" si="38"/>
+        <f t="shared" si="39"/>
         <v>#VALUE!</v>
       </c>
       <c r="Q95" s="1" t="e">
-        <f t="shared" si="39"/>
+        <f t="shared" si="40"/>
         <v>#VALUE!</v>
       </c>
       <c r="R95" s="1">
+        <f t="shared" si="46"/>
+        <v>720000000</v>
+      </c>
+      <c r="S95" s="1">
+        <f t="shared" si="43"/>
+        <v>500000000</v>
+      </c>
+      <c r="T95" s="1">
+        <f t="shared" si="44"/>
+        <v>0</v>
+      </c>
+      <c r="U95" s="1">
         <f t="shared" si="45"/>
-        <v>720000000</v>
-      </c>
-      <c r="S95" s="1">
-        <f t="shared" si="42"/>
-        <v>500000000</v>
-      </c>
-      <c r="T95" s="1">
-        <f t="shared" si="43"/>
-        <v>0</v>
-      </c>
-      <c r="U95" s="1">
-        <f t="shared" si="44"/>
         <v>0</v>
       </c>
       <c r="W95" s="1">
-        <f t="shared" si="40"/>
+        <f t="shared" si="41"/>
         <v>305000000</v>
       </c>
     </row>
@@ -18294,31 +18411,31 @@
         <v>0</v>
       </c>
       <c r="P96" s="1" t="e">
-        <f t="shared" si="38"/>
+        <f t="shared" si="39"/>
         <v>#VALUE!</v>
       </c>
       <c r="Q96" s="1" t="e">
-        <f t="shared" si="39"/>
+        <f t="shared" si="40"/>
         <v>#VALUE!</v>
       </c>
       <c r="R96" s="1">
+        <f t="shared" si="46"/>
+        <v>710000000</v>
+      </c>
+      <c r="S96" s="1">
+        <f t="shared" si="43"/>
+        <v>400000000</v>
+      </c>
+      <c r="T96" s="1">
+        <f t="shared" si="44"/>
+        <v>0</v>
+      </c>
+      <c r="U96" s="1">
         <f t="shared" si="45"/>
-        <v>710000000</v>
-      </c>
-      <c r="S96" s="1">
-        <f t="shared" si="42"/>
-        <v>400000000</v>
-      </c>
-      <c r="T96" s="1">
-        <f t="shared" si="43"/>
-        <v>0</v>
-      </c>
-      <c r="U96" s="1">
-        <f t="shared" si="44"/>
         <v>0</v>
       </c>
       <c r="W96" s="1">
-        <f t="shared" si="40"/>
+        <f t="shared" si="41"/>
         <v>277500000</v>
       </c>
       <c r="X96" s="1">
@@ -18378,31 +18495,31 @@
         <v>0</v>
       </c>
       <c r="P97" s="1" t="e">
-        <f t="shared" si="38"/>
+        <f t="shared" si="39"/>
         <v>#VALUE!</v>
       </c>
       <c r="Q97" s="1" t="e">
-        <f t="shared" si="39"/>
+        <f t="shared" si="40"/>
         <v>#VALUE!</v>
       </c>
       <c r="R97" s="1">
+        <f t="shared" si="46"/>
+        <v>700000000</v>
+      </c>
+      <c r="S97" s="1">
+        <f t="shared" si="43"/>
+        <v>500000000</v>
+      </c>
+      <c r="T97" s="1">
+        <f t="shared" si="44"/>
+        <v>0</v>
+      </c>
+      <c r="U97" s="1">
         <f t="shared" si="45"/>
-        <v>700000000</v>
-      </c>
-      <c r="S97" s="1">
-        <f t="shared" si="42"/>
-        <v>500000000</v>
-      </c>
-      <c r="T97" s="1">
-        <f t="shared" si="43"/>
-        <v>0</v>
-      </c>
-      <c r="U97" s="1">
-        <f t="shared" si="44"/>
         <v>0</v>
       </c>
       <c r="W97" s="1">
-        <f t="shared" si="40"/>
+        <f t="shared" si="41"/>
         <v>300000000</v>
       </c>
     </row>
@@ -18450,31 +18567,31 @@
         <v>0</v>
       </c>
       <c r="P98" s="1" t="e">
-        <f t="shared" si="38"/>
+        <f t="shared" si="39"/>
         <v>#VALUE!</v>
       </c>
       <c r="Q98" s="1" t="e">
-        <f t="shared" si="39"/>
+        <f t="shared" si="40"/>
         <v>#VALUE!</v>
       </c>
       <c r="R98" s="1">
+        <f t="shared" si="46"/>
+        <v>910000000</v>
+      </c>
+      <c r="S98" s="1">
+        <f t="shared" si="43"/>
+        <v>1000000000</v>
+      </c>
+      <c r="T98" s="1">
+        <f t="shared" si="44"/>
+        <v>0</v>
+      </c>
+      <c r="U98" s="1">
         <f t="shared" si="45"/>
-        <v>910000000</v>
-      </c>
-      <c r="S98" s="1">
-        <f t="shared" si="42"/>
-        <v>1000000000</v>
-      </c>
-      <c r="T98" s="1">
-        <f t="shared" si="43"/>
-        <v>0</v>
-      </c>
-      <c r="U98" s="1">
-        <f t="shared" si="44"/>
         <v>0</v>
       </c>
       <c r="W98" s="1">
-        <f t="shared" si="40"/>
+        <f t="shared" si="41"/>
         <v>477500000</v>
       </c>
       <c r="X98" s="1">
@@ -18534,31 +18651,31 @@
         <v>0</v>
       </c>
       <c r="P99" s="1" t="e">
-        <f t="shared" si="38"/>
+        <f t="shared" si="39"/>
         <v>#VALUE!</v>
       </c>
       <c r="Q99" s="1" t="e">
-        <f t="shared" si="39"/>
+        <f t="shared" si="40"/>
         <v>#VALUE!</v>
       </c>
       <c r="R99" s="1">
+        <f t="shared" si="46"/>
+        <v>710000000</v>
+      </c>
+      <c r="S99" s="1">
+        <f t="shared" si="43"/>
+        <v>600000000</v>
+      </c>
+      <c r="T99" s="1">
+        <f t="shared" si="44"/>
+        <v>1000000000</v>
+      </c>
+      <c r="U99" s="1">
         <f t="shared" si="45"/>
-        <v>710000000</v>
-      </c>
-      <c r="S99" s="1">
-        <f t="shared" si="42"/>
-        <v>600000000</v>
-      </c>
-      <c r="T99" s="1">
-        <f t="shared" si="43"/>
-        <v>1000000000</v>
-      </c>
-      <c r="U99" s="1">
-        <f t="shared" si="44"/>
         <v>0</v>
       </c>
       <c r="W99" s="1">
-        <f t="shared" si="40"/>
+        <f t="shared" si="41"/>
         <v>577500000</v>
       </c>
     </row>
@@ -18610,27 +18727,27 @@
         <v>#VALUE!</v>
       </c>
       <c r="Q100" s="1" t="e">
-        <f t="shared" si="39"/>
+        <f t="shared" si="40"/>
         <v>#VALUE!</v>
       </c>
       <c r="R100" s="1">
+        <f t="shared" si="46"/>
+        <v>810000000</v>
+      </c>
+      <c r="S100" s="1">
+        <f t="shared" si="43"/>
+        <v>700000000</v>
+      </c>
+      <c r="T100" s="1">
+        <f t="shared" si="44"/>
+        <v>1000000000</v>
+      </c>
+      <c r="U100" s="1">
         <f t="shared" si="45"/>
-        <v>810000000</v>
-      </c>
-      <c r="S100" s="1">
-        <f t="shared" si="42"/>
-        <v>700000000</v>
-      </c>
-      <c r="T100" s="1">
-        <f t="shared" si="43"/>
-        <v>1000000000</v>
-      </c>
-      <c r="U100" s="1">
-        <f t="shared" si="44"/>
         <v>0</v>
       </c>
       <c r="W100" s="1">
-        <f t="shared" si="40"/>
+        <f t="shared" si="41"/>
         <v>627500000</v>
       </c>
       <c r="X100" s="1">
@@ -18690,31 +18807,31 @@
         <v>0</v>
       </c>
       <c r="P101" s="1" t="e">
-        <f t="shared" ref="P101:P161" si="46">I101*100*10^(-1*$I$2)</f>
+        <f t="shared" ref="P101:P161" si="47">I101*100*10^(-1*$I$2)</f>
         <v>#VALUE!</v>
       </c>
       <c r="Q101" s="1" t="e">
-        <f t="shared" si="39"/>
+        <f t="shared" si="40"/>
         <v>#VALUE!</v>
       </c>
       <c r="R101" s="1">
-        <f t="shared" si="45"/>
+        <f t="shared" si="46"/>
         <v>820000000</v>
       </c>
       <c r="S101" s="1">
-        <f t="shared" si="42"/>
-        <v>1000000000</v>
-      </c>
-      <c r="T101" s="1">
         <f t="shared" si="43"/>
         <v>1000000000</v>
       </c>
+      <c r="T101" s="1">
+        <f t="shared" si="44"/>
+        <v>1000000000</v>
+      </c>
       <c r="U101" s="1">
-        <f t="shared" si="44"/>
+        <f t="shared" si="45"/>
         <v>0</v>
       </c>
       <c r="W101" s="1">
-        <f t="shared" si="40"/>
+        <f t="shared" si="41"/>
         <v>705000000</v>
       </c>
     </row>
@@ -18762,31 +18879,31 @@
         <v>1</v>
       </c>
       <c r="P102" s="1" t="e">
+        <f t="shared" si="47"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="Q102" s="1" t="e">
+        <f t="shared" si="40"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="R102" s="1">
         <f t="shared" si="46"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="Q102" s="1" t="e">
-        <f t="shared" si="39"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="R102" s="1">
+        <v>400000000</v>
+      </c>
+      <c r="S102" s="1">
+        <f t="shared" si="43"/>
+        <v>500000000</v>
+      </c>
+      <c r="T102" s="1">
+        <f t="shared" si="44"/>
+        <v>0</v>
+      </c>
+      <c r="U102" s="1">
         <f t="shared" si="45"/>
-        <v>400000000</v>
-      </c>
-      <c r="S102" s="1">
-        <f t="shared" si="42"/>
-        <v>500000000</v>
-      </c>
-      <c r="T102" s="1">
-        <f t="shared" si="43"/>
-        <v>0</v>
-      </c>
-      <c r="U102" s="1">
-        <f t="shared" si="44"/>
         <v>10000000000</v>
       </c>
       <c r="W102" s="1">
-        <f t="shared" si="40"/>
+        <f t="shared" si="41"/>
         <v>2725000000</v>
       </c>
       <c r="X102" s="1">
@@ -18846,31 +18963,31 @@
         <v>0</v>
       </c>
       <c r="P103" s="1" t="e">
+        <f t="shared" si="47"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="Q103" s="1" t="e">
+        <f t="shared" si="40"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="R103" s="1">
         <f t="shared" si="46"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="Q103" s="1" t="e">
-        <f t="shared" si="39"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="R103" s="1">
+        <v>460000000</v>
+      </c>
+      <c r="S103" s="1">
+        <f t="shared" si="43"/>
+        <v>400000000</v>
+      </c>
+      <c r="T103" s="1">
+        <f t="shared" si="44"/>
+        <v>1000000000</v>
+      </c>
+      <c r="U103" s="1">
         <f t="shared" si="45"/>
-        <v>460000000</v>
-      </c>
-      <c r="S103" s="1">
-        <f t="shared" si="42"/>
-        <v>400000000</v>
-      </c>
-      <c r="T103" s="1">
-        <f t="shared" si="43"/>
-        <v>1000000000</v>
-      </c>
-      <c r="U103" s="1">
-        <f t="shared" si="44"/>
         <v>0</v>
       </c>
       <c r="W103" s="1">
-        <f t="shared" si="40"/>
+        <f t="shared" si="41"/>
         <v>465000000</v>
       </c>
     </row>
@@ -18918,31 +19035,31 @@
         <v>0</v>
       </c>
       <c r="P104" s="1" t="e">
+        <f t="shared" si="47"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="Q104" s="1" t="e">
+        <f t="shared" si="40"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="R104" s="1">
         <f t="shared" si="46"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="Q104" s="1" t="e">
-        <f t="shared" si="39"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="R104" s="1">
+        <v>1160000000</v>
+      </c>
+      <c r="S104" s="1">
+        <f t="shared" si="43"/>
+        <v>1600000000</v>
+      </c>
+      <c r="T104" s="1">
+        <f t="shared" si="44"/>
+        <v>1000000000</v>
+      </c>
+      <c r="U104" s="1">
         <f t="shared" si="45"/>
-        <v>1160000000</v>
-      </c>
-      <c r="S104" s="1">
-        <f t="shared" si="42"/>
-        <v>1600000000</v>
-      </c>
-      <c r="T104" s="1">
-        <f t="shared" si="43"/>
-        <v>1000000000</v>
-      </c>
-      <c r="U104" s="1">
-        <f t="shared" si="44"/>
         <v>0</v>
       </c>
       <c r="W104" s="1">
-        <f t="shared" si="40"/>
+        <f t="shared" si="41"/>
         <v>940000000</v>
       </c>
       <c r="X104" s="1">
@@ -19002,31 +19119,31 @@
         <v>0</v>
       </c>
       <c r="P105" s="1" t="e">
+        <f t="shared" si="47"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="Q105" s="1" t="e">
+        <f t="shared" si="40"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="R105" s="1">
         <f t="shared" si="46"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="Q105" s="1" t="e">
-        <f t="shared" si="39"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="R105" s="1">
+        <v>1130000000</v>
+      </c>
+      <c r="S105" s="1">
+        <f t="shared" si="43"/>
+        <v>1500000000</v>
+      </c>
+      <c r="T105" s="1">
+        <f t="shared" si="44"/>
+        <v>2000000000</v>
+      </c>
+      <c r="U105" s="1">
         <f t="shared" si="45"/>
-        <v>1130000000</v>
-      </c>
-      <c r="S105" s="1">
-        <f t="shared" si="42"/>
-        <v>1500000000</v>
-      </c>
-      <c r="T105" s="1">
-        <f t="shared" si="43"/>
-        <v>2000000000</v>
-      </c>
-      <c r="U105" s="1">
-        <f t="shared" si="44"/>
         <v>0</v>
       </c>
       <c r="W105" s="1">
-        <f t="shared" si="40"/>
+        <f t="shared" si="41"/>
         <v>1157500000</v>
       </c>
     </row>
@@ -19074,31 +19191,31 @@
         <v>0</v>
       </c>
       <c r="P106" s="1" t="e">
+        <f t="shared" si="47"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="Q106" s="1" t="e">
+        <f t="shared" si="40"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="R106" s="1">
         <f t="shared" si="46"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="Q106" s="1" t="e">
-        <f t="shared" si="39"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="R106" s="1">
+        <v>380000000</v>
+      </c>
+      <c r="S106" s="1">
+        <f t="shared" si="43"/>
+        <v>300000000</v>
+      </c>
+      <c r="T106" s="1">
+        <f t="shared" si="44"/>
+        <v>0</v>
+      </c>
+      <c r="U106" s="1">
         <f t="shared" si="45"/>
-        <v>380000000</v>
-      </c>
-      <c r="S106" s="1">
-        <f t="shared" si="42"/>
-        <v>300000000</v>
-      </c>
-      <c r="T106" s="1">
-        <f t="shared" si="43"/>
-        <v>0</v>
-      </c>
-      <c r="U106" s="1">
-        <f t="shared" si="44"/>
         <v>0</v>
       </c>
       <c r="W106" s="1">
-        <f t="shared" si="40"/>
+        <f t="shared" si="41"/>
         <v>170000000</v>
       </c>
       <c r="X106" s="1">
@@ -19158,31 +19275,31 @@
         <v>0</v>
       </c>
       <c r="P107" s="1" t="e">
+        <f t="shared" si="47"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="Q107" s="1" t="e">
+        <f t="shared" si="40"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="R107" s="1">
         <f t="shared" si="46"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="Q107" s="1" t="e">
-        <f t="shared" si="39"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="R107" s="1">
+        <v>540000000</v>
+      </c>
+      <c r="S107" s="1">
+        <f t="shared" si="43"/>
+        <v>800000000</v>
+      </c>
+      <c r="T107" s="1">
+        <f t="shared" si="44"/>
+        <v>0</v>
+      </c>
+      <c r="U107" s="1">
         <f t="shared" si="45"/>
-        <v>540000000</v>
-      </c>
-      <c r="S107" s="1">
-        <f t="shared" si="42"/>
-        <v>800000000</v>
-      </c>
-      <c r="T107" s="1">
-        <f t="shared" si="43"/>
-        <v>0</v>
-      </c>
-      <c r="U107" s="1">
-        <f t="shared" si="44"/>
         <v>0</v>
       </c>
       <c r="W107" s="1">
-        <f t="shared" si="40"/>
+        <f t="shared" si="41"/>
         <v>335000000</v>
       </c>
     </row>
@@ -19230,31 +19347,31 @@
         <v>0</v>
       </c>
       <c r="P108" s="1" t="e">
+        <f t="shared" si="47"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="Q108" s="1" t="e">
+        <f t="shared" si="40"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="R108" s="1">
         <f t="shared" si="46"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="Q108" s="1" t="e">
-        <f t="shared" si="39"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="R108" s="1">
+        <v>440000000</v>
+      </c>
+      <c r="S108" s="1">
+        <f t="shared" si="43"/>
+        <v>100000000</v>
+      </c>
+      <c r="T108" s="1">
+        <f t="shared" si="44"/>
+        <v>2000000000</v>
+      </c>
+      <c r="U108" s="1">
         <f t="shared" si="45"/>
-        <v>440000000</v>
-      </c>
-      <c r="S108" s="1">
-        <f t="shared" si="42"/>
-        <v>100000000</v>
-      </c>
-      <c r="T108" s="1">
-        <f t="shared" si="43"/>
-        <v>2000000000</v>
-      </c>
-      <c r="U108" s="1">
-        <f t="shared" si="44"/>
         <v>0</v>
       </c>
       <c r="W108" s="1">
-        <f t="shared" si="40"/>
+        <f t="shared" si="41"/>
         <v>635000000</v>
       </c>
       <c r="X108" s="1">
@@ -19314,31 +19431,31 @@
         <v>0</v>
       </c>
       <c r="P109" s="1" t="e">
+        <f t="shared" si="47"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="Q109" s="1" t="e">
+        <f t="shared" si="40"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="R109" s="1">
         <f t="shared" si="46"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="Q109" s="1" t="e">
-        <f t="shared" si="39"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="R109" s="1">
+        <v>440000000</v>
+      </c>
+      <c r="S109" s="1">
+        <f t="shared" si="43"/>
+        <v>100000000</v>
+      </c>
+      <c r="T109" s="1">
+        <f t="shared" si="44"/>
+        <v>0</v>
+      </c>
+      <c r="U109" s="1">
         <f t="shared" si="45"/>
-        <v>440000000</v>
-      </c>
-      <c r="S109" s="1">
-        <f t="shared" si="42"/>
-        <v>100000000</v>
-      </c>
-      <c r="T109" s="1">
-        <f t="shared" si="43"/>
-        <v>0</v>
-      </c>
-      <c r="U109" s="1">
-        <f t="shared" si="44"/>
         <v>0</v>
       </c>
       <c r="W109" s="1">
-        <f t="shared" si="40"/>
+        <f t="shared" si="41"/>
         <v>135000000</v>
       </c>
     </row>
@@ -19386,7 +19503,7 @@
         <v>0</v>
       </c>
       <c r="P110" s="1" t="e">
-        <f t="shared" si="46"/>
+        <f t="shared" si="47"/>
         <v>#VALUE!</v>
       </c>
       <c r="Q110" s="1">
@@ -19394,23 +19511,23 @@
         <v>180000000</v>
       </c>
       <c r="R110" s="1">
+        <f t="shared" si="46"/>
+        <v>250000000</v>
+      </c>
+      <c r="S110" s="1">
+        <f t="shared" si="43"/>
+        <v>200000000</v>
+      </c>
+      <c r="T110" s="1">
+        <f t="shared" si="44"/>
+        <v>0</v>
+      </c>
+      <c r="U110" s="1">
         <f t="shared" si="45"/>
-        <v>250000000</v>
-      </c>
-      <c r="S110" s="1">
-        <f t="shared" si="42"/>
-        <v>200000000</v>
-      </c>
-      <c r="T110" s="1">
-        <f t="shared" si="43"/>
-        <v>0</v>
-      </c>
-      <c r="U110" s="1">
-        <f t="shared" si="44"/>
         <v>0</v>
       </c>
       <c r="W110" s="1">
-        <f t="shared" si="40"/>
+        <f t="shared" si="41"/>
         <v>126000000</v>
       </c>
       <c r="X110" s="1">
@@ -19470,31 +19587,31 @@
         <v>0</v>
       </c>
       <c r="P111" s="1" t="e">
+        <f t="shared" si="47"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="Q111" s="1">
+        <f t="shared" si="40"/>
+        <v>169000000</v>
+      </c>
+      <c r="R111" s="1">
         <f t="shared" si="46"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="Q111" s="1">
-        <f t="shared" si="39"/>
-        <v>169000000</v>
-      </c>
-      <c r="R111" s="1">
+        <v>200000000</v>
+      </c>
+      <c r="S111" s="1">
+        <f t="shared" si="43"/>
+        <v>100000000</v>
+      </c>
+      <c r="T111" s="1">
+        <f t="shared" si="44"/>
+        <v>0</v>
+      </c>
+      <c r="U111" s="1">
         <f t="shared" si="45"/>
-        <v>200000000</v>
-      </c>
-      <c r="S111" s="1">
-        <f t="shared" si="42"/>
-        <v>100000000</v>
-      </c>
-      <c r="T111" s="1">
-        <f t="shared" si="43"/>
-        <v>0</v>
-      </c>
-      <c r="U111" s="1">
-        <f t="shared" si="44"/>
         <v>0</v>
       </c>
       <c r="W111" s="1">
-        <f t="shared" si="40"/>
+        <f t="shared" si="41"/>
         <v>93800000</v>
       </c>
     </row>
@@ -19542,31 +19659,31 @@
         <v>0</v>
       </c>
       <c r="P112" s="1" t="e">
+        <f t="shared" si="47"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="Q112" s="1" t="e">
+        <f t="shared" si="40"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="R112" s="1">
         <f t="shared" si="46"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="Q112" s="1" t="e">
-        <f t="shared" si="39"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="R112" s="1">
+        <v>310000000</v>
+      </c>
+      <c r="S112" s="1">
+        <f t="shared" si="43"/>
+        <v>100000000</v>
+      </c>
+      <c r="T112" s="1">
+        <f t="shared" si="44"/>
+        <v>0</v>
+      </c>
+      <c r="U112" s="1">
         <f t="shared" si="45"/>
-        <v>310000000</v>
-      </c>
-      <c r="S112" s="1">
-        <f t="shared" si="42"/>
-        <v>100000000</v>
-      </c>
-      <c r="T112" s="1">
-        <f t="shared" si="43"/>
-        <v>0</v>
-      </c>
-      <c r="U112" s="1">
-        <f t="shared" si="44"/>
         <v>0</v>
       </c>
       <c r="W112" s="1">
-        <f t="shared" si="40"/>
+        <f t="shared" si="41"/>
         <v>102500000</v>
       </c>
       <c r="X112" s="1">
@@ -19626,31 +19743,31 @@
         <v>0</v>
       </c>
       <c r="P113" s="1" t="e">
+        <f t="shared" si="47"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="Q113" s="1" t="e">
+        <f t="shared" si="40"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="R113" s="1">
         <f t="shared" si="46"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="Q113" s="1" t="e">
-        <f t="shared" si="39"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="R113" s="1">
+        <v>400000000</v>
+      </c>
+      <c r="S113" s="1">
+        <f t="shared" si="43"/>
+        <v>500000000</v>
+      </c>
+      <c r="T113" s="1">
+        <f t="shared" si="44"/>
+        <v>1000000000</v>
+      </c>
+      <c r="U113" s="1">
         <f t="shared" si="45"/>
-        <v>400000000</v>
-      </c>
-      <c r="S113" s="1">
-        <f t="shared" si="42"/>
-        <v>500000000</v>
-      </c>
-      <c r="T113" s="1">
-        <f t="shared" si="43"/>
-        <v>1000000000</v>
-      </c>
-      <c r="U113" s="1">
-        <f t="shared" si="44"/>
         <v>0</v>
       </c>
       <c r="W113" s="1">
-        <f t="shared" si="40"/>
+        <f t="shared" si="41"/>
         <v>475000000</v>
       </c>
     </row>
@@ -19698,31 +19815,31 @@
         <v>0</v>
       </c>
       <c r="P114" s="1" t="e">
+        <f t="shared" si="47"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="Q114" s="1" t="e">
+        <f t="shared" si="40"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="R114" s="1">
         <f t="shared" si="46"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="Q114" s="1" t="e">
-        <f t="shared" si="39"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="R114" s="1">
+        <v>1400000000</v>
+      </c>
+      <c r="S114" s="1">
+        <f t="shared" si="43"/>
+        <v>900000000</v>
+      </c>
+      <c r="T114" s="1">
+        <f t="shared" si="44"/>
+        <v>1000000000</v>
+      </c>
+      <c r="U114" s="1">
         <f t="shared" si="45"/>
-        <v>1400000000</v>
-      </c>
-      <c r="S114" s="1">
-        <f t="shared" si="42"/>
-        <v>900000000</v>
-      </c>
-      <c r="T114" s="1">
-        <f t="shared" si="43"/>
-        <v>1000000000</v>
-      </c>
-      <c r="U114" s="1">
-        <f t="shared" si="44"/>
         <v>0</v>
       </c>
       <c r="W114" s="1">
-        <f t="shared" si="40"/>
+        <f t="shared" si="41"/>
         <v>825000000</v>
       </c>
       <c r="X114" s="1">
@@ -19782,31 +19899,31 @@
         <v>0</v>
       </c>
       <c r="P115" s="1" t="e">
+        <f t="shared" si="47"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="Q115" s="1" t="e">
+        <f t="shared" si="40"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="R115" s="1">
         <f t="shared" si="46"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="Q115" s="1" t="e">
-        <f t="shared" si="39"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="R115" s="1">
+        <v>1130000000</v>
+      </c>
+      <c r="S115" s="1">
+        <f t="shared" si="43"/>
+        <v>1500000000</v>
+      </c>
+      <c r="T115" s="1">
+        <f t="shared" si="44"/>
+        <v>1000000000</v>
+      </c>
+      <c r="U115" s="1">
         <f t="shared" si="45"/>
-        <v>1130000000</v>
-      </c>
-      <c r="S115" s="1">
-        <f t="shared" si="42"/>
-        <v>1500000000</v>
-      </c>
-      <c r="T115" s="1">
-        <f t="shared" si="43"/>
-        <v>1000000000</v>
-      </c>
-      <c r="U115" s="1">
-        <f t="shared" si="44"/>
         <v>0</v>
       </c>
       <c r="W115" s="1">
-        <f t="shared" si="40"/>
+        <f t="shared" si="41"/>
         <v>907500000</v>
       </c>
     </row>
@@ -19854,31 +19971,31 @@
         <v>1</v>
       </c>
       <c r="P116" s="1" t="e">
+        <f t="shared" si="47"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="Q116" s="1" t="e">
+        <f t="shared" si="40"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="R116" s="1">
         <f t="shared" si="46"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="Q116" s="1" t="e">
-        <f t="shared" si="39"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="R116" s="1">
+        <v>380000000</v>
+      </c>
+      <c r="S116" s="1">
+        <f t="shared" si="43"/>
+        <v>400000000</v>
+      </c>
+      <c r="T116" s="1">
+        <f t="shared" si="44"/>
+        <v>0</v>
+      </c>
+      <c r="U116" s="1">
         <f t="shared" si="45"/>
-        <v>380000000</v>
-      </c>
-      <c r="S116" s="1">
-        <f t="shared" si="42"/>
-        <v>400000000</v>
-      </c>
-      <c r="T116" s="1">
-        <f t="shared" si="43"/>
-        <v>0</v>
-      </c>
-      <c r="U116" s="1">
-        <f t="shared" si="44"/>
         <v>10000000000</v>
       </c>
       <c r="W116" s="1">
-        <f t="shared" si="40"/>
+        <f t="shared" si="41"/>
         <v>2695000000</v>
       </c>
       <c r="X116" s="1">
@@ -19938,31 +20055,31 @@
         <v>0</v>
       </c>
       <c r="P117" s="1" t="e">
+        <f t="shared" si="47"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="Q117" s="1" t="e">
+        <f t="shared" si="40"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="R117" s="1">
         <f t="shared" si="46"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="Q117" s="1" t="e">
-        <f t="shared" si="39"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="R117" s="1">
+        <v>500000000</v>
+      </c>
+      <c r="S117" s="1">
+        <f t="shared" si="43"/>
+        <v>300000000</v>
+      </c>
+      <c r="T117" s="1">
+        <f t="shared" si="44"/>
+        <v>0</v>
+      </c>
+      <c r="U117" s="1">
         <f t="shared" si="45"/>
-        <v>500000000</v>
-      </c>
-      <c r="S117" s="1">
-        <f t="shared" si="42"/>
-        <v>300000000</v>
-      </c>
-      <c r="T117" s="1">
-        <f t="shared" si="43"/>
-        <v>0</v>
-      </c>
-      <c r="U117" s="1">
-        <f t="shared" si="44"/>
         <v>0</v>
       </c>
       <c r="W117" s="1">
-        <f t="shared" si="40"/>
+        <f t="shared" si="41"/>
         <v>200000000</v>
       </c>
     </row>
@@ -20010,31 +20127,31 @@
         <v>0</v>
       </c>
       <c r="P118" s="1" t="e">
+        <f t="shared" si="47"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="Q118" s="1">
+        <f t="shared" si="40"/>
+        <v>170000000</v>
+      </c>
+      <c r="R118" s="1">
         <f t="shared" si="46"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="Q118" s="1">
-        <f t="shared" si="39"/>
-        <v>170000000</v>
-      </c>
-      <c r="R118" s="1">
+        <v>150000000</v>
+      </c>
+      <c r="S118" s="1">
+        <f t="shared" si="43"/>
+        <v>0</v>
+      </c>
+      <c r="T118" s="1">
+        <f t="shared" si="44"/>
+        <v>0</v>
+      </c>
+      <c r="U118" s="1">
         <f t="shared" si="45"/>
-        <v>150000000</v>
-      </c>
-      <c r="S118" s="1">
-        <f t="shared" si="42"/>
-        <v>0</v>
-      </c>
-      <c r="T118" s="1">
-        <f t="shared" si="43"/>
-        <v>0</v>
-      </c>
-      <c r="U118" s="1">
-        <f t="shared" si="44"/>
         <v>0</v>
       </c>
       <c r="W118" s="1">
-        <f t="shared" si="40"/>
+        <f t="shared" si="41"/>
         <v>64000000</v>
       </c>
       <c r="X118" s="1">
@@ -20094,31 +20211,31 @@
         <v>0</v>
       </c>
       <c r="P119" s="1" t="e">
+        <f t="shared" si="47"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="Q119" s="1">
+        <f t="shared" si="40"/>
+        <v>169000000</v>
+      </c>
+      <c r="R119" s="1">
         <f t="shared" si="46"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="Q119" s="1">
-        <f t="shared" si="39"/>
-        <v>169000000</v>
-      </c>
-      <c r="R119" s="1">
+        <v>170000000</v>
+      </c>
+      <c r="S119" s="1">
+        <f t="shared" si="43"/>
+        <v>200000000</v>
+      </c>
+      <c r="T119" s="1">
+        <f t="shared" si="44"/>
+        <v>0</v>
+      </c>
+      <c r="U119" s="1">
         <f t="shared" si="45"/>
-        <v>170000000</v>
-      </c>
-      <c r="S119" s="1">
-        <f t="shared" si="42"/>
-        <v>200000000</v>
-      </c>
-      <c r="T119" s="1">
-        <f t="shared" si="43"/>
-        <v>0</v>
-      </c>
-      <c r="U119" s="1">
-        <f t="shared" si="44"/>
         <v>0</v>
       </c>
       <c r="W119" s="1">
-        <f t="shared" si="40"/>
+        <f t="shared" si="41"/>
         <v>107800000</v>
       </c>
     </row>
@@ -20166,31 +20283,31 @@
         <v>1</v>
       </c>
       <c r="P120" s="1" t="e">
+        <f t="shared" si="47"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="Q120" s="1" t="e">
+        <f t="shared" si="40"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="R120" s="1">
         <f t="shared" si="46"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="Q120" s="1" t="e">
-        <f t="shared" si="39"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="R120" s="1">
+        <v>590000000</v>
+      </c>
+      <c r="S120" s="1">
+        <f t="shared" si="43"/>
+        <v>300000000</v>
+      </c>
+      <c r="T120" s="1">
+        <f t="shared" si="44"/>
+        <v>1000000000</v>
+      </c>
+      <c r="U120" s="1">
         <f t="shared" si="45"/>
-        <v>590000000</v>
-      </c>
-      <c r="S120" s="1">
-        <f t="shared" si="42"/>
-        <v>300000000</v>
-      </c>
-      <c r="T120" s="1">
-        <f t="shared" si="43"/>
-        <v>1000000000</v>
-      </c>
-      <c r="U120" s="1">
-        <f t="shared" si="44"/>
         <v>10000000000</v>
       </c>
       <c r="W120" s="1">
-        <f t="shared" si="40"/>
+        <f t="shared" si="41"/>
         <v>2972500000</v>
       </c>
       <c r="X120" s="1">
@@ -20250,31 +20367,31 @@
         <v>0</v>
       </c>
       <c r="P121" s="1" t="e">
+        <f t="shared" si="47"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="Q121" s="1" t="e">
+        <f t="shared" si="40"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="R121" s="1">
         <f t="shared" si="46"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="Q121" s="1" t="e">
-        <f t="shared" si="39"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="R121" s="1">
+        <v>490000000</v>
+      </c>
+      <c r="S121" s="1">
+        <f t="shared" si="43"/>
+        <v>700000000</v>
+      </c>
+      <c r="T121" s="1">
+        <f t="shared" si="44"/>
+        <v>1000000000</v>
+      </c>
+      <c r="U121" s="1">
         <f t="shared" si="45"/>
-        <v>490000000</v>
-      </c>
-      <c r="S121" s="1">
-        <f t="shared" si="42"/>
-        <v>700000000</v>
-      </c>
-      <c r="T121" s="1">
-        <f t="shared" si="43"/>
-        <v>1000000000</v>
-      </c>
-      <c r="U121" s="1">
-        <f t="shared" si="44"/>
         <v>0</v>
       </c>
       <c r="W121" s="1">
-        <f t="shared" si="40"/>
+        <f t="shared" si="41"/>
         <v>547500000</v>
       </c>
     </row>
@@ -20322,31 +20439,31 @@
         <v>0</v>
       </c>
       <c r="P122" s="1" t="e">
+        <f t="shared" si="47"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="Q122" s="1" t="e">
+        <f t="shared" si="40"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="R122" s="1">
         <f t="shared" si="46"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="Q122" s="1" t="e">
-        <f t="shared" si="39"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="R122" s="1">
+        <v>350000000</v>
+      </c>
+      <c r="S122" s="1">
+        <f t="shared" si="43"/>
+        <v>500000000</v>
+      </c>
+      <c r="T122" s="1">
+        <f t="shared" si="44"/>
+        <v>1000000000</v>
+      </c>
+      <c r="U122" s="1">
         <f t="shared" si="45"/>
-        <v>350000000</v>
-      </c>
-      <c r="S122" s="1">
-        <f t="shared" si="42"/>
-        <v>500000000</v>
-      </c>
-      <c r="T122" s="1">
-        <f t="shared" si="43"/>
-        <v>1000000000</v>
-      </c>
-      <c r="U122" s="1">
-        <f t="shared" si="44"/>
         <v>0</v>
       </c>
       <c r="W122" s="1">
-        <f t="shared" si="40"/>
+        <f t="shared" si="41"/>
         <v>462500000</v>
       </c>
       <c r="X122" s="1">
@@ -20406,31 +20523,31 @@
         <v>0</v>
       </c>
       <c r="P123" s="1" t="e">
+        <f t="shared" si="47"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="Q123" s="1" t="e">
+        <f t="shared" si="40"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="R123" s="1">
         <f t="shared" si="46"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="Q123" s="1" t="e">
-        <f t="shared" si="39"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="R123" s="1">
+        <v>310000000</v>
+      </c>
+      <c r="S123" s="1">
+        <f t="shared" si="43"/>
+        <v>200000000</v>
+      </c>
+      <c r="T123" s="1">
+        <f t="shared" si="44"/>
+        <v>2000000000</v>
+      </c>
+      <c r="U123" s="1">
         <f t="shared" si="45"/>
-        <v>310000000</v>
-      </c>
-      <c r="S123" s="1">
-        <f t="shared" si="42"/>
-        <v>200000000</v>
-      </c>
-      <c r="T123" s="1">
-        <f t="shared" si="43"/>
-        <v>2000000000</v>
-      </c>
-      <c r="U123" s="1">
-        <f t="shared" si="44"/>
         <v>0</v>
       </c>
       <c r="W123" s="1">
-        <f t="shared" si="40"/>
+        <f t="shared" si="41"/>
         <v>627500000</v>
       </c>
     </row>
@@ -20478,31 +20595,31 @@
         <v>1</v>
       </c>
       <c r="P124" s="1" t="e">
+        <f t="shared" si="47"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="Q124" s="1" t="e">
+        <f t="shared" si="40"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="R124" s="1">
         <f t="shared" si="46"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="Q124" s="1" t="e">
-        <f t="shared" si="39"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="R124" s="1">
+        <v>1030000000</v>
+      </c>
+      <c r="S124" s="1">
+        <f t="shared" si="43"/>
+        <v>1300000000</v>
+      </c>
+      <c r="T124" s="1">
+        <f t="shared" si="44"/>
+        <v>3000000000</v>
+      </c>
+      <c r="U124" s="1">
         <f t="shared" si="45"/>
-        <v>1030000000</v>
-      </c>
-      <c r="S124" s="1">
-        <f t="shared" si="42"/>
-        <v>1300000000</v>
-      </c>
-      <c r="T124" s="1">
-        <f t="shared" si="43"/>
-        <v>3000000000</v>
-      </c>
-      <c r="U124" s="1">
-        <f t="shared" si="44"/>
         <v>10000000000</v>
       </c>
       <c r="W124" s="1">
-        <f t="shared" si="40"/>
+        <f t="shared" si="41"/>
         <v>3832500000</v>
       </c>
       <c r="X124" s="1">
@@ -20562,31 +20679,31 @@
         <v>0</v>
       </c>
       <c r="P125" s="1" t="e">
+        <f t="shared" si="47"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="Q125" s="1" t="e">
+        <f t="shared" si="40"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="R125" s="1">
         <f t="shared" si="46"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="Q125" s="1" t="e">
-        <f t="shared" si="39"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="R125" s="1">
+        <v>1220000000</v>
+      </c>
+      <c r="S125" s="1">
+        <f t="shared" si="43"/>
+        <v>1500000000</v>
+      </c>
+      <c r="T125" s="1">
+        <f t="shared" si="44"/>
+        <v>2000000000</v>
+      </c>
+      <c r="U125" s="1">
         <f t="shared" si="45"/>
-        <v>1220000000</v>
-      </c>
-      <c r="S125" s="1">
-        <f t="shared" si="42"/>
-        <v>1500000000</v>
-      </c>
-      <c r="T125" s="1">
-        <f t="shared" si="43"/>
-        <v>2000000000</v>
-      </c>
-      <c r="U125" s="1">
-        <f t="shared" si="44"/>
         <v>0</v>
       </c>
       <c r="W125" s="1">
-        <f t="shared" si="40"/>
+        <f t="shared" si="41"/>
         <v>1180000000</v>
       </c>
     </row>
@@ -20634,31 +20751,31 @@
         <v>0</v>
       </c>
       <c r="P126" s="1" t="e">
+        <f t="shared" si="47"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="Q126" s="1" t="e">
+        <f t="shared" si="40"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="R126" s="1">
         <f t="shared" si="46"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="Q126" s="1" t="e">
-        <f t="shared" si="39"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="R126" s="1">
+        <v>410000000</v>
+      </c>
+      <c r="S126" s="1">
+        <f t="shared" si="43"/>
+        <v>0</v>
+      </c>
+      <c r="T126" s="1">
+        <f t="shared" si="44"/>
+        <v>0</v>
+      </c>
+      <c r="U126" s="1">
         <f t="shared" si="45"/>
-        <v>410000000</v>
-      </c>
-      <c r="S126" s="1">
-        <f t="shared" si="42"/>
-        <v>0</v>
-      </c>
-      <c r="T126" s="1">
-        <f t="shared" si="43"/>
-        <v>0</v>
-      </c>
-      <c r="U126" s="1">
-        <f t="shared" si="44"/>
         <v>0</v>
       </c>
       <c r="W126" s="1">
-        <f t="shared" si="40"/>
+        <f t="shared" si="41"/>
         <v>102500000</v>
       </c>
       <c r="X126" s="1">
@@ -20718,31 +20835,31 @@
         <v>0</v>
       </c>
       <c r="P127" s="1" t="e">
+        <f t="shared" si="47"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="Q127" s="1" t="e">
+        <f t="shared" si="40"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="R127" s="1">
         <f t="shared" si="46"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="Q127" s="1" t="e">
-        <f t="shared" si="39"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="R127" s="1">
+        <v>450000000</v>
+      </c>
+      <c r="S127" s="1">
+        <f t="shared" si="43"/>
+        <v>900000000</v>
+      </c>
+      <c r="T127" s="1">
+        <f t="shared" si="44"/>
+        <v>0</v>
+      </c>
+      <c r="U127" s="1">
         <f t="shared" si="45"/>
-        <v>450000000</v>
-      </c>
-      <c r="S127" s="1">
-        <f t="shared" si="42"/>
-        <v>900000000</v>
-      </c>
-      <c r="T127" s="1">
-        <f t="shared" si="43"/>
-        <v>0</v>
-      </c>
-      <c r="U127" s="1">
-        <f t="shared" si="44"/>
         <v>0</v>
       </c>
       <c r="W127" s="1">
-        <f t="shared" si="40"/>
+        <f t="shared" si="41"/>
         <v>337500000</v>
       </c>
     </row>
@@ -20790,31 +20907,31 @@
         <v>0</v>
       </c>
       <c r="P128" s="1" t="e">
+        <f t="shared" si="47"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="Q128" s="1" t="e">
+        <f t="shared" si="40"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="R128" s="1">
         <f t="shared" si="46"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="Q128" s="1" t="e">
-        <f t="shared" si="39"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="R128" s="1">
+        <v>500000000</v>
+      </c>
+      <c r="S128" s="1">
+        <f t="shared" si="43"/>
+        <v>500000000</v>
+      </c>
+      <c r="T128" s="1">
+        <f t="shared" si="44"/>
+        <v>0</v>
+      </c>
+      <c r="U128" s="1">
         <f t="shared" si="45"/>
-        <v>500000000</v>
-      </c>
-      <c r="S128" s="1">
-        <f t="shared" si="42"/>
-        <v>500000000</v>
-      </c>
-      <c r="T128" s="1">
-        <f t="shared" si="43"/>
-        <v>0</v>
-      </c>
-      <c r="U128" s="1">
-        <f t="shared" si="44"/>
         <v>0</v>
       </c>
       <c r="W128" s="1">
-        <f t="shared" si="40"/>
+        <f t="shared" si="41"/>
         <v>250000000</v>
       </c>
       <c r="X128" s="1">
@@ -20874,31 +20991,31 @@
         <v>0</v>
       </c>
       <c r="P129" s="1" t="e">
+        <f t="shared" si="47"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="Q129" s="1" t="e">
+        <f t="shared" si="40"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="R129" s="1">
         <f t="shared" si="46"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="Q129" s="1" t="e">
-        <f t="shared" si="39"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="R129" s="1">
+        <v>460000000</v>
+      </c>
+      <c r="S129" s="1">
+        <f t="shared" si="43"/>
+        <v>500000000</v>
+      </c>
+      <c r="T129" s="1">
+        <f t="shared" si="44"/>
+        <v>0</v>
+      </c>
+      <c r="U129" s="1">
         <f t="shared" si="45"/>
-        <v>460000000</v>
-      </c>
-      <c r="S129" s="1">
-        <f t="shared" si="42"/>
-        <v>500000000</v>
-      </c>
-      <c r="T129" s="1">
-        <f t="shared" si="43"/>
-        <v>0</v>
-      </c>
-      <c r="U129" s="1">
-        <f t="shared" si="44"/>
         <v>0</v>
       </c>
       <c r="W129" s="1">
-        <f t="shared" si="40"/>
+        <f t="shared" si="41"/>
         <v>240000000</v>
       </c>
     </row>
@@ -20946,31 +21063,31 @@
         <v>0</v>
       </c>
       <c r="P130" s="1" t="e">
+        <f t="shared" si="47"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="Q130" s="1" t="e">
+        <f t="shared" si="40"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="R130" s="1">
         <f t="shared" si="46"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="Q130" s="1" t="e">
-        <f t="shared" si="39"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="R130" s="1">
+        <v>570000000</v>
+      </c>
+      <c r="S130" s="1">
+        <f t="shared" si="43"/>
+        <v>400000000</v>
+      </c>
+      <c r="T130" s="1">
+        <f t="shared" si="44"/>
+        <v>0</v>
+      </c>
+      <c r="U130" s="1">
         <f t="shared" si="45"/>
-        <v>570000000</v>
-      </c>
-      <c r="S130" s="1">
-        <f t="shared" si="42"/>
-        <v>400000000</v>
-      </c>
-      <c r="T130" s="1">
-        <f t="shared" si="43"/>
-        <v>0</v>
-      </c>
-      <c r="U130" s="1">
-        <f t="shared" si="44"/>
         <v>0</v>
       </c>
       <c r="W130" s="1">
-        <f t="shared" si="40"/>
+        <f t="shared" si="41"/>
         <v>242500000</v>
       </c>
       <c r="X130" s="1">
@@ -21030,31 +21147,31 @@
         <v>0</v>
       </c>
       <c r="P131" s="1" t="e">
+        <f t="shared" si="47"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="Q131" s="1" t="e">
+        <f t="shared" si="40"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="R131" s="1">
         <f t="shared" si="46"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="Q131" s="1" t="e">
-        <f t="shared" si="39"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="R131" s="1">
+        <v>630000000</v>
+      </c>
+      <c r="S131" s="1">
+        <f t="shared" si="43"/>
+        <v>1100000000</v>
+      </c>
+      <c r="T131" s="1">
+        <f t="shared" si="44"/>
+        <v>0</v>
+      </c>
+      <c r="U131" s="1">
         <f t="shared" si="45"/>
-        <v>630000000</v>
-      </c>
-      <c r="S131" s="1">
-        <f t="shared" si="42"/>
-        <v>1100000000</v>
-      </c>
-      <c r="T131" s="1">
-        <f t="shared" si="43"/>
-        <v>0</v>
-      </c>
-      <c r="U131" s="1">
-        <f t="shared" si="44"/>
         <v>0</v>
       </c>
       <c r="W131" s="1">
-        <f t="shared" si="40"/>
+        <f t="shared" si="41"/>
         <v>432500000</v>
       </c>
     </row>
@@ -21102,31 +21219,31 @@
         <v>0</v>
       </c>
       <c r="P132" s="1" t="e">
+        <f t="shared" si="47"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="Q132" s="1" t="e">
+        <f t="shared" si="40"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="R132" s="1">
         <f t="shared" si="46"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="Q132" s="1" t="e">
-        <f t="shared" si="39"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="R132" s="1">
+        <v>530000000</v>
+      </c>
+      <c r="S132" s="1">
+        <f t="shared" si="43"/>
+        <v>300000000</v>
+      </c>
+      <c r="T132" s="1">
+        <f t="shared" si="44"/>
+        <v>0</v>
+      </c>
+      <c r="U132" s="1">
         <f t="shared" si="45"/>
-        <v>530000000</v>
-      </c>
-      <c r="S132" s="1">
-        <f t="shared" si="42"/>
-        <v>300000000</v>
-      </c>
-      <c r="T132" s="1">
-        <f t="shared" si="43"/>
-        <v>0</v>
-      </c>
-      <c r="U132" s="1">
-        <f t="shared" si="44"/>
         <v>0</v>
       </c>
       <c r="W132" s="1">
-        <f t="shared" si="40"/>
+        <f t="shared" si="41"/>
         <v>207500000</v>
       </c>
       <c r="X132" s="1">
@@ -21186,31 +21303,31 @@
         <v>0</v>
       </c>
       <c r="P133" s="1" t="e">
+        <f t="shared" si="47"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="Q133" s="1" t="e">
+        <f t="shared" si="40"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="R133" s="1">
         <f t="shared" si="46"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="Q133" s="1" t="e">
-        <f t="shared" si="39"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="R133" s="1">
+        <v>470000000</v>
+      </c>
+      <c r="S133" s="1">
+        <f t="shared" si="43"/>
+        <v>600000000</v>
+      </c>
+      <c r="T133" s="1">
+        <f t="shared" si="44"/>
+        <v>0</v>
+      </c>
+      <c r="U133" s="1">
         <f t="shared" si="45"/>
-        <v>470000000</v>
-      </c>
-      <c r="S133" s="1">
-        <f t="shared" si="42"/>
-        <v>600000000</v>
-      </c>
-      <c r="T133" s="1">
-        <f t="shared" si="43"/>
-        <v>0</v>
-      </c>
-      <c r="U133" s="1">
-        <f t="shared" si="44"/>
         <v>0</v>
       </c>
       <c r="W133" s="1">
-        <f t="shared" si="40"/>
+        <f t="shared" si="41"/>
         <v>267500000</v>
       </c>
     </row>
@@ -21258,31 +21375,31 @@
         <v>0</v>
       </c>
       <c r="P134" s="1" t="e">
+        <f t="shared" si="47"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="Q134" s="1" t="e">
+        <f t="shared" si="40"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="R134" s="1">
         <f t="shared" si="46"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="Q134" s="1" t="e">
-        <f t="shared" si="39"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="R134" s="1">
+        <v>1050000000</v>
+      </c>
+      <c r="S134" s="1">
+        <f t="shared" si="43"/>
+        <v>1500000000</v>
+      </c>
+      <c r="T134" s="1">
+        <f t="shared" si="44"/>
+        <v>0</v>
+      </c>
+      <c r="U134" s="1">
         <f t="shared" si="45"/>
-        <v>1050000000</v>
-      </c>
-      <c r="S134" s="1">
-        <f t="shared" si="42"/>
-        <v>1500000000</v>
-      </c>
-      <c r="T134" s="1">
-        <f t="shared" si="43"/>
-        <v>0</v>
-      </c>
-      <c r="U134" s="1">
-        <f t="shared" si="44"/>
         <v>0</v>
       </c>
       <c r="W134" s="1">
-        <f t="shared" si="40"/>
+        <f t="shared" si="41"/>
         <v>637500000</v>
       </c>
       <c r="X134" s="1">
@@ -21342,31 +21459,31 @@
         <v>0</v>
       </c>
       <c r="P135" s="1" t="e">
+        <f t="shared" si="47"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="Q135" s="1" t="e">
+        <f t="shared" si="40"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="R135" s="1">
         <f t="shared" si="46"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="Q135" s="1" t="e">
-        <f t="shared" si="39"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="R135" s="1">
+        <v>930000000</v>
+      </c>
+      <c r="S135" s="1">
+        <f t="shared" si="43"/>
+        <v>1100000000</v>
+      </c>
+      <c r="T135" s="1">
+        <f t="shared" si="44"/>
+        <v>0</v>
+      </c>
+      <c r="U135" s="1">
         <f t="shared" si="45"/>
-        <v>930000000</v>
-      </c>
-      <c r="S135" s="1">
-        <f t="shared" si="42"/>
-        <v>1100000000</v>
-      </c>
-      <c r="T135" s="1">
-        <f t="shared" si="43"/>
-        <v>0</v>
-      </c>
-      <c r="U135" s="1">
-        <f t="shared" si="44"/>
         <v>0</v>
       </c>
       <c r="W135" s="1">
-        <f t="shared" si="40"/>
+        <f t="shared" si="41"/>
         <v>507500000</v>
       </c>
     </row>
@@ -21414,31 +21531,31 @@
         <v>0</v>
       </c>
       <c r="P136" s="1" t="e">
+        <f t="shared" si="47"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="Q136" s="1" t="e">
+        <f t="shared" si="40"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="R136" s="1">
         <f t="shared" si="46"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="Q136" s="1" t="e">
-        <f t="shared" si="39"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="R136" s="1">
+        <v>1250000000</v>
+      </c>
+      <c r="S136" s="1">
+        <f t="shared" si="43"/>
+        <v>1500000000</v>
+      </c>
+      <c r="T136" s="1">
+        <f t="shared" si="44"/>
+        <v>0</v>
+      </c>
+      <c r="U136" s="1">
         <f t="shared" si="45"/>
-        <v>1250000000</v>
-      </c>
-      <c r="S136" s="1">
-        <f t="shared" si="42"/>
-        <v>1500000000</v>
-      </c>
-      <c r="T136" s="1">
-        <f t="shared" si="43"/>
-        <v>0</v>
-      </c>
-      <c r="U136" s="1">
-        <f t="shared" si="44"/>
         <v>0</v>
       </c>
       <c r="W136" s="1">
-        <f t="shared" si="40"/>
+        <f t="shared" si="41"/>
         <v>687500000</v>
       </c>
       <c r="X136" s="1">
@@ -21498,31 +21615,31 @@
         <v>0</v>
       </c>
       <c r="P137" s="1" t="e">
+        <f t="shared" si="47"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="Q137" s="1" t="e">
+        <f t="shared" si="40"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="R137" s="1">
         <f t="shared" si="46"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="Q137" s="1" t="e">
-        <f t="shared" si="39"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="R137" s="1">
+        <v>1380000000</v>
+      </c>
+      <c r="S137" s="1">
+        <f t="shared" si="43"/>
+        <v>1400000000</v>
+      </c>
+      <c r="T137" s="1">
+        <f t="shared" si="44"/>
+        <v>2000000000</v>
+      </c>
+      <c r="U137" s="1">
         <f t="shared" si="45"/>
-        <v>1380000000</v>
-      </c>
-      <c r="S137" s="1">
-        <f t="shared" si="42"/>
-        <v>1400000000</v>
-      </c>
-      <c r="T137" s="1">
-        <f t="shared" si="43"/>
-        <v>2000000000</v>
-      </c>
-      <c r="U137" s="1">
-        <f t="shared" si="44"/>
         <v>0</v>
       </c>
       <c r="W137" s="1">
-        <f t="shared" si="40"/>
+        <f t="shared" si="41"/>
         <v>1195000000</v>
       </c>
     </row>
@@ -21570,31 +21687,31 @@
         <v>0</v>
       </c>
       <c r="P138" s="1">
+        <f t="shared" si="47"/>
+        <v>900000</v>
+      </c>
+      <c r="Q138" s="1">
+        <f t="shared" si="40"/>
+        <v>1000000</v>
+      </c>
+      <c r="R138" s="1">
         <f t="shared" si="46"/>
-        <v>900000</v>
-      </c>
-      <c r="Q138" s="1">
-        <f t="shared" si="39"/>
-        <v>1000000</v>
-      </c>
-      <c r="R138" s="1">
+        <v>10000000</v>
+      </c>
+      <c r="S138" s="1">
+        <f t="shared" si="43"/>
+        <v>0</v>
+      </c>
+      <c r="T138" s="1">
+        <f t="shared" si="44"/>
+        <v>0</v>
+      </c>
+      <c r="U138" s="1">
         <f t="shared" si="45"/>
-        <v>10000000</v>
-      </c>
-      <c r="S138" s="1">
-        <f t="shared" si="42"/>
-        <v>0</v>
-      </c>
-      <c r="T138" s="1">
-        <f t="shared" si="43"/>
-        <v>0</v>
-      </c>
-      <c r="U138" s="1">
-        <f t="shared" si="44"/>
         <v>0</v>
       </c>
       <c r="W138" s="1">
-        <f t="shared" si="40"/>
+        <f t="shared" si="41"/>
         <v>1983333.3333333333</v>
       </c>
       <c r="X138" s="1">
@@ -21654,31 +21771,31 @@
         <v>0</v>
       </c>
       <c r="P139" s="1">
+        <f t="shared" si="47"/>
+        <v>600000</v>
+      </c>
+      <c r="Q139" s="1">
+        <f t="shared" si="40"/>
+        <v>0</v>
+      </c>
+      <c r="R139" s="1">
         <f t="shared" si="46"/>
-        <v>600000</v>
-      </c>
-      <c r="Q139" s="1">
-        <f t="shared" si="39"/>
-        <v>0</v>
-      </c>
-      <c r="R139" s="1">
+        <v>0</v>
+      </c>
+      <c r="S139" s="1">
+        <f t="shared" si="43"/>
+        <v>0</v>
+      </c>
+      <c r="T139" s="1">
+        <f t="shared" si="44"/>
+        <v>0</v>
+      </c>
+      <c r="U139" s="1">
         <f t="shared" si="45"/>
         <v>0</v>
       </c>
-      <c r="S139" s="1">
-        <f t="shared" si="42"/>
-        <v>0</v>
-      </c>
-      <c r="T139" s="1">
-        <f t="shared" si="43"/>
-        <v>0</v>
-      </c>
-      <c r="U139" s="1">
-        <f t="shared" si="44"/>
-        <v>0</v>
-      </c>
       <c r="W139" s="1">
-        <f t="shared" si="40"/>
+        <f t="shared" si="41"/>
         <v>100000</v>
       </c>
     </row>
@@ -21726,31 +21843,31 @@
         <v>0</v>
       </c>
       <c r="P140" s="1">
+        <f t="shared" si="47"/>
+        <v>1100000</v>
+      </c>
+      <c r="Q140" s="1">
+        <f t="shared" si="40"/>
+        <v>0</v>
+      </c>
+      <c r="R140" s="1">
         <f t="shared" si="46"/>
-        <v>1100000</v>
-      </c>
-      <c r="Q140" s="1">
-        <f t="shared" si="39"/>
-        <v>0</v>
-      </c>
-      <c r="R140" s="1">
+        <v>0</v>
+      </c>
+      <c r="S140" s="1">
+        <f t="shared" si="43"/>
+        <v>0</v>
+      </c>
+      <c r="T140" s="1">
+        <f t="shared" si="44"/>
+        <v>0</v>
+      </c>
+      <c r="U140" s="1">
         <f t="shared" si="45"/>
         <v>0</v>
       </c>
-      <c r="S140" s="1">
-        <f t="shared" si="42"/>
-        <v>0</v>
-      </c>
-      <c r="T140" s="1">
-        <f t="shared" si="43"/>
-        <v>0</v>
-      </c>
-      <c r="U140" s="1">
-        <f t="shared" si="44"/>
-        <v>0</v>
-      </c>
       <c r="W140" s="1">
-        <f t="shared" si="40"/>
+        <f t="shared" si="41"/>
         <v>183333.33333333334</v>
       </c>
       <c r="X140" s="1">
@@ -21810,31 +21927,31 @@
         <v>0</v>
       </c>
       <c r="P141" s="1">
+        <f t="shared" si="47"/>
+        <v>800000</v>
+      </c>
+      <c r="Q141" s="1">
+        <f t="shared" si="40"/>
+        <v>1000000</v>
+      </c>
+      <c r="R141" s="1">
         <f t="shared" si="46"/>
-        <v>800000</v>
-      </c>
-      <c r="Q141" s="1">
-        <f t="shared" si="39"/>
-        <v>1000000</v>
-      </c>
-      <c r="R141" s="1">
+        <v>0</v>
+      </c>
+      <c r="S141" s="1">
+        <f t="shared" si="43"/>
+        <v>0</v>
+      </c>
+      <c r="T141" s="1">
+        <f t="shared" si="44"/>
+        <v>0</v>
+      </c>
+      <c r="U141" s="1">
         <f t="shared" si="45"/>
         <v>0</v>
       </c>
-      <c r="S141" s="1">
-        <f t="shared" si="42"/>
-        <v>0</v>
-      </c>
-      <c r="T141" s="1">
-        <f t="shared" si="43"/>
-        <v>0</v>
-      </c>
-      <c r="U141" s="1">
-        <f t="shared" si="44"/>
-        <v>0</v>
-      </c>
       <c r="W141" s="1">
-        <f t="shared" si="40"/>
+        <f t="shared" si="41"/>
         <v>300000</v>
       </c>
     </row>
@@ -21882,31 +21999,31 @@
         <v>1</v>
       </c>
       <c r="P142" s="1" t="e">
+        <f t="shared" si="47"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="Q142" s="1" t="e">
+        <f t="shared" si="40"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="R142" s="1">
         <f t="shared" si="46"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="Q142" s="1" t="e">
-        <f t="shared" si="39"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="R142" s="1">
+        <v>570000000</v>
+      </c>
+      <c r="S142" s="1">
+        <f t="shared" si="43"/>
+        <v>800000000</v>
+      </c>
+      <c r="T142" s="1">
+        <f t="shared" si="44"/>
+        <v>0</v>
+      </c>
+      <c r="U142" s="1">
         <f t="shared" si="45"/>
-        <v>570000000</v>
-      </c>
-      <c r="S142" s="1">
-        <f t="shared" si="42"/>
-        <v>800000000</v>
-      </c>
-      <c r="T142" s="1">
-        <f t="shared" si="43"/>
-        <v>0</v>
-      </c>
-      <c r="U142" s="1">
-        <f t="shared" si="44"/>
         <v>10000000000</v>
       </c>
       <c r="W142" s="1">
-        <f t="shared" si="40"/>
+        <f t="shared" si="41"/>
         <v>2842500000</v>
       </c>
       <c r="X142" s="1">
@@ -21966,31 +22083,31 @@
         <v>0</v>
       </c>
       <c r="P143" s="1" t="e">
+        <f t="shared" si="47"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="Q143" s="1" t="e">
+        <f t="shared" si="40"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="R143" s="1">
         <f t="shared" si="46"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="Q143" s="1" t="e">
-        <f t="shared" si="39"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="R143" s="1">
-        <f t="shared" si="45"/>
         <v>570000000</v>
       </c>
       <c r="S143" s="1">
-        <f t="shared" si="42"/>
-        <v>1000000000</v>
-      </c>
-      <c r="T143" s="1">
         <f t="shared" si="43"/>
         <v>1000000000</v>
       </c>
+      <c r="T143" s="1">
+        <f t="shared" si="44"/>
+        <v>1000000000</v>
+      </c>
       <c r="U143" s="1">
-        <f t="shared" si="44"/>
+        <f t="shared" si="45"/>
         <v>0</v>
       </c>
       <c r="W143" s="1">
-        <f t="shared" si="40"/>
+        <f t="shared" si="41"/>
         <v>642500000</v>
       </c>
     </row>
@@ -22038,31 +22155,31 @@
         <v>0</v>
       </c>
       <c r="P144" s="1" t="e">
+        <f t="shared" si="47"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="Q144" s="1" t="e">
+        <f t="shared" si="40"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="R144" s="1">
         <f t="shared" si="46"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="Q144" s="1" t="e">
-        <f t="shared" si="39"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="R144" s="1">
+        <v>1400000000</v>
+      </c>
+      <c r="S144" s="1">
+        <f t="shared" si="43"/>
+        <v>2400000000</v>
+      </c>
+      <c r="T144" s="1">
+        <f t="shared" si="44"/>
+        <v>3000000000</v>
+      </c>
+      <c r="U144" s="1">
         <f t="shared" si="45"/>
-        <v>1400000000</v>
-      </c>
-      <c r="S144" s="1">
-        <f t="shared" si="42"/>
-        <v>2400000000</v>
-      </c>
-      <c r="T144" s="1">
-        <f t="shared" si="43"/>
-        <v>3000000000</v>
-      </c>
-      <c r="U144" s="1">
-        <f t="shared" si="44"/>
         <v>0</v>
       </c>
       <c r="W144" s="1">
-        <f t="shared" si="40"/>
+        <f t="shared" si="41"/>
         <v>1700000000</v>
       </c>
       <c r="X144" s="1">
@@ -22122,31 +22239,31 @@
         <v>1</v>
       </c>
       <c r="P145" s="1" t="e">
+        <f t="shared" si="47"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="Q145" s="1" t="e">
+        <f t="shared" si="40"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="R145" s="1">
         <f t="shared" si="46"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="Q145" s="1" t="e">
-        <f t="shared" si="39"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="R145" s="1">
+        <v>1280000000</v>
+      </c>
+      <c r="S145" s="1">
+        <f t="shared" si="43"/>
+        <v>2200000000</v>
+      </c>
+      <c r="T145" s="1">
+        <f t="shared" si="44"/>
+        <v>3000000000</v>
+      </c>
+      <c r="U145" s="1">
         <f t="shared" si="45"/>
-        <v>1280000000</v>
-      </c>
-      <c r="S145" s="1">
-        <f t="shared" si="42"/>
-        <v>2200000000</v>
-      </c>
-      <c r="T145" s="1">
-        <f t="shared" si="43"/>
-        <v>3000000000</v>
-      </c>
-      <c r="U145" s="1">
-        <f t="shared" si="44"/>
         <v>10000000000</v>
       </c>
       <c r="W145" s="1">
-        <f t="shared" si="40"/>
+        <f t="shared" si="41"/>
         <v>4120000000</v>
       </c>
     </row>
@@ -22194,31 +22311,31 @@
         <v>0</v>
       </c>
       <c r="P146" s="1" t="e">
+        <f t="shared" si="47"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="Q146" s="1" t="e">
+        <f t="shared" si="40"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="R146" s="1">
         <f t="shared" si="46"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="Q146" s="1" t="e">
-        <f t="shared" si="39"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="R146" s="1">
+        <v>1330000000</v>
+      </c>
+      <c r="S146" s="1">
+        <f t="shared" si="43"/>
+        <v>1000000000</v>
+      </c>
+      <c r="T146" s="1">
+        <f t="shared" si="44"/>
+        <v>0</v>
+      </c>
+      <c r="U146" s="1">
         <f t="shared" si="45"/>
-        <v>1330000000</v>
-      </c>
-      <c r="S146" s="1">
-        <f t="shared" si="42"/>
-        <v>1000000000</v>
-      </c>
-      <c r="T146" s="1">
-        <f t="shared" si="43"/>
-        <v>0</v>
-      </c>
-      <c r="U146" s="1">
-        <f t="shared" si="44"/>
         <v>0</v>
       </c>
       <c r="W146" s="1">
-        <f t="shared" si="40"/>
+        <f t="shared" si="41"/>
         <v>582500000</v>
       </c>
       <c r="X146" s="1">
@@ -22278,31 +22395,31 @@
         <v>1</v>
       </c>
       <c r="P147" s="1" t="e">
+        <f t="shared" si="47"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="Q147" s="1" t="e">
+        <f t="shared" si="40"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="R147" s="1">
         <f t="shared" si="46"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="Q147" s="1" t="e">
-        <f t="shared" si="39"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="R147" s="1">
+        <v>1360000000</v>
+      </c>
+      <c r="S147" s="1">
+        <f t="shared" si="43"/>
+        <v>2200000000</v>
+      </c>
+      <c r="T147" s="1">
+        <f t="shared" si="44"/>
+        <v>1000000000</v>
+      </c>
+      <c r="U147" s="1">
         <f t="shared" si="45"/>
-        <v>1360000000</v>
-      </c>
-      <c r="S147" s="1">
-        <f t="shared" si="42"/>
-        <v>2200000000</v>
-      </c>
-      <c r="T147" s="1">
-        <f t="shared" si="43"/>
-        <v>1000000000</v>
-      </c>
-      <c r="U147" s="1">
-        <f t="shared" si="44"/>
         <v>10000000000</v>
       </c>
       <c r="W147" s="1">
-        <f t="shared" si="40"/>
+        <f t="shared" si="41"/>
         <v>3640000000</v>
       </c>
     </row>
@@ -22350,31 +22467,31 @@
         <v>0</v>
       </c>
       <c r="P148" s="1">
+        <f t="shared" si="47"/>
+        <v>1200000</v>
+      </c>
+      <c r="Q148" s="1">
+        <f t="shared" si="40"/>
+        <v>1000000</v>
+      </c>
+      <c r="R148" s="1">
         <f t="shared" si="46"/>
-        <v>1200000</v>
-      </c>
-      <c r="Q148" s="1">
-        <f t="shared" si="39"/>
-        <v>1000000</v>
-      </c>
-      <c r="R148" s="1">
+        <v>10000000</v>
+      </c>
+      <c r="S148" s="1">
+        <f t="shared" si="43"/>
+        <v>0</v>
+      </c>
+      <c r="T148" s="1">
+        <f t="shared" si="44"/>
+        <v>0</v>
+      </c>
+      <c r="U148" s="1">
         <f t="shared" si="45"/>
-        <v>10000000</v>
-      </c>
-      <c r="S148" s="1">
-        <f t="shared" si="42"/>
-        <v>0</v>
-      </c>
-      <c r="T148" s="1">
-        <f t="shared" si="43"/>
-        <v>0</v>
-      </c>
-      <c r="U148" s="1">
-        <f t="shared" si="44"/>
         <v>0</v>
       </c>
       <c r="W148" s="1">
-        <f t="shared" si="40"/>
+        <f t="shared" si="41"/>
         <v>2033333.3333333333</v>
       </c>
       <c r="X148" s="1">
@@ -22434,31 +22551,31 @@
         <v>0</v>
       </c>
       <c r="P149" s="1">
+        <f t="shared" si="47"/>
+        <v>1700000</v>
+      </c>
+      <c r="Q149" s="1">
+        <f t="shared" ref="Q149:Q161" si="48">J149*100*10^(-1*$J$2)</f>
+        <v>2000000</v>
+      </c>
+      <c r="R149" s="1">
         <f t="shared" si="46"/>
-        <v>1700000</v>
-      </c>
-      <c r="Q149" s="1">
-        <f t="shared" ref="Q149:Q161" si="47">J149*100*10^(-1*$J$2)</f>
-        <v>2000000</v>
-      </c>
-      <c r="R149" s="1">
+        <v>0</v>
+      </c>
+      <c r="S149" s="1">
+        <f t="shared" si="43"/>
+        <v>0</v>
+      </c>
+      <c r="T149" s="1">
+        <f t="shared" si="44"/>
+        <v>0</v>
+      </c>
+      <c r="U149" s="1">
         <f t="shared" si="45"/>
         <v>0</v>
       </c>
-      <c r="S149" s="1">
-        <f t="shared" si="42"/>
-        <v>0</v>
-      </c>
-      <c r="T149" s="1">
-        <f t="shared" si="43"/>
-        <v>0</v>
-      </c>
-      <c r="U149" s="1">
-        <f t="shared" si="44"/>
-        <v>0</v>
-      </c>
       <c r="W149" s="1">
-        <f t="shared" si="40"/>
+        <f t="shared" si="41"/>
         <v>616666.66666666663</v>
       </c>
     </row>
@@ -22506,31 +22623,31 @@
         <v>0</v>
       </c>
       <c r="P150" s="1">
+        <f t="shared" si="47"/>
+        <v>1600000</v>
+      </c>
+      <c r="Q150" s="1">
+        <f t="shared" si="48"/>
+        <v>1000000</v>
+      </c>
+      <c r="R150" s="1">
         <f t="shared" si="46"/>
-        <v>1600000</v>
-      </c>
-      <c r="Q150" s="1">
-        <f t="shared" si="47"/>
-        <v>1000000</v>
-      </c>
-      <c r="R150" s="1">
+        <v>0</v>
+      </c>
+      <c r="S150" s="1">
+        <f t="shared" si="43"/>
+        <v>0</v>
+      </c>
+      <c r="T150" s="1">
+        <f t="shared" si="44"/>
+        <v>0</v>
+      </c>
+      <c r="U150" s="1">
         <f t="shared" si="45"/>
         <v>0</v>
       </c>
-      <c r="S150" s="1">
-        <f t="shared" si="42"/>
-        <v>0</v>
-      </c>
-      <c r="T150" s="1">
-        <f t="shared" si="43"/>
-        <v>0</v>
-      </c>
-      <c r="U150" s="1">
-        <f t="shared" si="44"/>
-        <v>0</v>
-      </c>
       <c r="W150" s="1">
-        <f t="shared" si="40"/>
+        <f t="shared" si="41"/>
         <v>433333.33333333331</v>
       </c>
       <c r="X150" s="1">
@@ -22590,31 +22707,31 @@
         <v>0</v>
       </c>
       <c r="P151" s="1">
+        <f t="shared" si="47"/>
+        <v>1900000</v>
+      </c>
+      <c r="Q151" s="1">
+        <f t="shared" si="48"/>
+        <v>2000000</v>
+      </c>
+      <c r="R151" s="1">
         <f t="shared" si="46"/>
-        <v>1900000</v>
-      </c>
-      <c r="Q151" s="1">
-        <f t="shared" si="47"/>
-        <v>2000000</v>
-      </c>
-      <c r="R151" s="1">
+        <v>0</v>
+      </c>
+      <c r="S151" s="1">
+        <f t="shared" si="43"/>
+        <v>0</v>
+      </c>
+      <c r="T151" s="1">
+        <f t="shared" si="44"/>
+        <v>0</v>
+      </c>
+      <c r="U151" s="1">
         <f t="shared" si="45"/>
         <v>0</v>
       </c>
-      <c r="S151" s="1">
-        <f t="shared" si="42"/>
-        <v>0</v>
-      </c>
-      <c r="T151" s="1">
-        <f t="shared" si="43"/>
-        <v>0</v>
-      </c>
-      <c r="U151" s="1">
-        <f t="shared" si="44"/>
-        <v>0</v>
-      </c>
       <c r="W151" s="1">
-        <f t="shared" ref="W151:W161" si="48">_xlfn.AGGREGATE(1, 6, P151:U151)</f>
+        <f t="shared" ref="W151:W161" si="49">_xlfn.AGGREGATE(1, 6, P151:U151)</f>
         <v>650000</v>
       </c>
     </row>
@@ -22662,31 +22779,31 @@
         <v>0</v>
       </c>
       <c r="P152" s="1" t="e">
+        <f t="shared" si="47"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="Q152" s="1" t="e">
+        <f t="shared" si="48"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="R152" s="1">
         <f t="shared" si="46"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="Q152" s="1" t="e">
-        <f t="shared" si="47"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="R152" s="1">
-        <f t="shared" si="45"/>
         <v>660000000</v>
       </c>
       <c r="S152" s="1">
-        <f t="shared" ref="S152:S161" si="49">L152*100*10^(-1*$L$2)</f>
+        <f t="shared" ref="S152:S161" si="50">L152*100*10^(-1*$L$2)</f>
         <v>400000000</v>
       </c>
       <c r="T152" s="1">
-        <f t="shared" ref="T152:T161" si="50">M152*100*10^(-1*$M$2)</f>
+        <f t="shared" ref="T152:T161" si="51">M152*100*10^(-1*$M$2)</f>
         <v>2000000000</v>
       </c>
       <c r="U152" s="1">
-        <f t="shared" ref="U152:U161" si="51">N152*100*10^(-1*$N$2)</f>
+        <f t="shared" ref="U152:U161" si="52">N152*100*10^(-1*$N$2)</f>
         <v>0</v>
       </c>
       <c r="W152" s="1">
-        <f t="shared" si="48"/>
+        <f t="shared" si="49"/>
         <v>765000000</v>
       </c>
       <c r="X152" s="1">
@@ -22746,31 +22863,31 @@
         <v>0</v>
       </c>
       <c r="P153" s="1" t="e">
+        <f t="shared" si="47"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="Q153" s="1" t="e">
+        <f t="shared" si="48"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="R153" s="1">
         <f t="shared" si="46"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="Q153" s="1" t="e">
-        <f t="shared" si="47"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="R153" s="1">
-        <f t="shared" si="45"/>
         <v>680000000</v>
       </c>
       <c r="S153" s="1">
+        <f t="shared" si="50"/>
+        <v>1200000000</v>
+      </c>
+      <c r="T153" s="1">
+        <f t="shared" si="51"/>
+        <v>2000000000</v>
+      </c>
+      <c r="U153" s="1">
+        <f t="shared" si="52"/>
+        <v>0</v>
+      </c>
+      <c r="W153" s="1">
         <f t="shared" si="49"/>
-        <v>1200000000</v>
-      </c>
-      <c r="T153" s="1">
-        <f t="shared" si="50"/>
-        <v>2000000000</v>
-      </c>
-      <c r="U153" s="1">
-        <f t="shared" si="51"/>
-        <v>0</v>
-      </c>
-      <c r="W153" s="1">
-        <f t="shared" si="48"/>
         <v>970000000</v>
       </c>
     </row>
@@ -22818,31 +22935,31 @@
         <v>0</v>
       </c>
       <c r="P154" s="1" t="e">
+        <f t="shared" si="47"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="Q154" s="1" t="e">
+        <f t="shared" si="48"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="R154" s="1">
         <f t="shared" si="46"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="Q154" s="1" t="e">
-        <f t="shared" si="47"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="R154" s="1">
-        <f t="shared" si="45"/>
         <v>1230000000</v>
       </c>
       <c r="S154" s="1">
+        <f t="shared" si="50"/>
+        <v>1700000000</v>
+      </c>
+      <c r="T154" s="1">
+        <f t="shared" si="51"/>
+        <v>6000000000</v>
+      </c>
+      <c r="U154" s="1">
+        <f t="shared" si="52"/>
+        <v>0</v>
+      </c>
+      <c r="W154" s="1">
         <f t="shared" si="49"/>
-        <v>1700000000</v>
-      </c>
-      <c r="T154" s="1">
-        <f t="shared" si="50"/>
-        <v>6000000000</v>
-      </c>
-      <c r="U154" s="1">
-        <f t="shared" si="51"/>
-        <v>0</v>
-      </c>
-      <c r="W154" s="1">
-        <f t="shared" si="48"/>
         <v>2232500000</v>
       </c>
       <c r="X154" s="1">
@@ -22902,31 +23019,31 @@
         <v>1</v>
       </c>
       <c r="P155" s="1" t="e">
+        <f t="shared" si="47"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="Q155" s="1" t="e">
+        <f t="shared" si="48"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="R155" s="1">
         <f t="shared" si="46"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="Q155" s="1" t="e">
-        <f t="shared" si="47"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="R155" s="1">
-        <f t="shared" si="45"/>
         <v>1270000000</v>
       </c>
       <c r="S155" s="1">
+        <f t="shared" si="50"/>
+        <v>2400000000</v>
+      </c>
+      <c r="T155" s="1">
+        <f t="shared" si="51"/>
+        <v>1000000000</v>
+      </c>
+      <c r="U155" s="1">
+        <f t="shared" si="52"/>
+        <v>10000000000</v>
+      </c>
+      <c r="W155" s="1">
         <f t="shared" si="49"/>
-        <v>2400000000</v>
-      </c>
-      <c r="T155" s="1">
-        <f t="shared" si="50"/>
-        <v>1000000000</v>
-      </c>
-      <c r="U155" s="1">
-        <f t="shared" si="51"/>
-        <v>10000000000</v>
-      </c>
-      <c r="W155" s="1">
-        <f t="shared" si="48"/>
         <v>3667500000</v>
       </c>
     </row>
@@ -22974,31 +23091,31 @@
         <v>0</v>
       </c>
       <c r="P156" s="1" t="e">
+        <f t="shared" si="47"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="Q156" s="1" t="e">
+        <f t="shared" si="48"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="R156" s="1">
         <f t="shared" si="46"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="Q156" s="1" t="e">
-        <f t="shared" si="47"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="R156" s="1">
-        <f t="shared" si="45"/>
         <v>1430000000</v>
       </c>
       <c r="S156" s="1">
+        <f t="shared" si="50"/>
+        <v>2300000000</v>
+      </c>
+      <c r="T156" s="1">
+        <f t="shared" si="51"/>
+        <v>3000000000</v>
+      </c>
+      <c r="U156" s="1">
+        <f t="shared" si="52"/>
+        <v>0</v>
+      </c>
+      <c r="W156" s="1">
         <f t="shared" si="49"/>
-        <v>2300000000</v>
-      </c>
-      <c r="T156" s="1">
-        <f t="shared" si="50"/>
-        <v>3000000000</v>
-      </c>
-      <c r="U156" s="1">
-        <f t="shared" si="51"/>
-        <v>0</v>
-      </c>
-      <c r="W156" s="1">
-        <f t="shared" si="48"/>
         <v>1682500000</v>
       </c>
       <c r="X156" s="1">
@@ -23058,31 +23175,31 @@
         <v>0</v>
       </c>
       <c r="P157" s="1" t="e">
-        <f t="shared" si="46"/>
+        <f t="shared" si="47"/>
         <v>#VALUE!</v>
       </c>
       <c r="Q157" s="1" t="e">
-        <f t="shared" si="47"/>
+        <f t="shared" si="48"/>
         <v>#VALUE!</v>
       </c>
       <c r="R157" s="1">
-        <f t="shared" ref="R157:R161" si="52">K157*100*10^(-1*$K$2)</f>
+        <f t="shared" ref="R157:R161" si="53">K157*100*10^(-1*$K$2)</f>
         <v>1540000000</v>
       </c>
       <c r="S157" s="1">
+        <f t="shared" si="50"/>
+        <v>2100000000</v>
+      </c>
+      <c r="T157" s="1">
+        <f t="shared" si="51"/>
+        <v>2000000000</v>
+      </c>
+      <c r="U157" s="1">
+        <f t="shared" si="52"/>
+        <v>0</v>
+      </c>
+      <c r="W157" s="1">
         <f t="shared" si="49"/>
-        <v>2100000000</v>
-      </c>
-      <c r="T157" s="1">
-        <f t="shared" si="50"/>
-        <v>2000000000</v>
-      </c>
-      <c r="U157" s="1">
-        <f t="shared" si="51"/>
-        <v>0</v>
-      </c>
-      <c r="W157" s="1">
-        <f t="shared" si="48"/>
         <v>1410000000</v>
       </c>
     </row>
@@ -23130,31 +23247,31 @@
         <v>0</v>
       </c>
       <c r="P158" s="1">
-        <f t="shared" si="46"/>
+        <f t="shared" si="47"/>
         <v>2200000</v>
       </c>
       <c r="Q158" s="1">
-        <f t="shared" si="47"/>
+        <f t="shared" si="48"/>
         <v>2000000</v>
       </c>
       <c r="R158" s="1">
+        <f t="shared" si="53"/>
+        <v>0</v>
+      </c>
+      <c r="S158" s="1">
+        <f t="shared" si="50"/>
+        <v>0</v>
+      </c>
+      <c r="T158" s="1">
+        <f t="shared" si="51"/>
+        <v>0</v>
+      </c>
+      <c r="U158" s="1">
         <f t="shared" si="52"/>
         <v>0</v>
       </c>
-      <c r="S158" s="1">
+      <c r="W158" s="1">
         <f t="shared" si="49"/>
-        <v>0</v>
-      </c>
-      <c r="T158" s="1">
-        <f t="shared" si="50"/>
-        <v>0</v>
-      </c>
-      <c r="U158" s="1">
-        <f t="shared" si="51"/>
-        <v>0</v>
-      </c>
-      <c r="W158" s="1">
-        <f t="shared" si="48"/>
         <v>700000</v>
       </c>
       <c r="X158" s="1">
@@ -23214,31 +23331,31 @@
         <v>0</v>
       </c>
       <c r="P159" s="1">
-        <f t="shared" si="46"/>
+        <f t="shared" si="47"/>
         <v>2600000</v>
       </c>
       <c r="Q159" s="1">
-        <f t="shared" si="47"/>
+        <f t="shared" si="48"/>
         <v>2000000</v>
       </c>
       <c r="R159" s="1">
+        <f t="shared" si="53"/>
+        <v>0</v>
+      </c>
+      <c r="S159" s="1">
+        <f t="shared" si="50"/>
+        <v>0</v>
+      </c>
+      <c r="T159" s="1">
+        <f t="shared" si="51"/>
+        <v>0</v>
+      </c>
+      <c r="U159" s="1">
         <f t="shared" si="52"/>
         <v>0</v>
       </c>
-      <c r="S159" s="1">
+      <c r="W159" s="1">
         <f t="shared" si="49"/>
-        <v>0</v>
-      </c>
-      <c r="T159" s="1">
-        <f t="shared" si="50"/>
-        <v>0</v>
-      </c>
-      <c r="U159" s="1">
-        <f t="shared" si="51"/>
-        <v>0</v>
-      </c>
-      <c r="W159" s="1">
-        <f t="shared" si="48"/>
         <v>766666.66666666663</v>
       </c>
     </row>
@@ -23286,31 +23403,31 @@
         <v>0</v>
       </c>
       <c r="P160" s="1">
-        <f t="shared" si="46"/>
+        <f t="shared" si="47"/>
         <v>5200000</v>
       </c>
       <c r="Q160" s="1">
-        <f t="shared" si="47"/>
+        <f t="shared" si="48"/>
         <v>8000000</v>
       </c>
       <c r="R160" s="1">
+        <f t="shared" si="53"/>
+        <v>0</v>
+      </c>
+      <c r="S160" s="1">
+        <f t="shared" si="50"/>
+        <v>100000000</v>
+      </c>
+      <c r="T160" s="1">
+        <f t="shared" si="51"/>
+        <v>0</v>
+      </c>
+      <c r="U160" s="1">
         <f t="shared" si="52"/>
         <v>0</v>
       </c>
-      <c r="S160" s="1">
+      <c r="W160" s="1">
         <f t="shared" si="49"/>
-        <v>100000000</v>
-      </c>
-      <c r="T160" s="1">
-        <f t="shared" si="50"/>
-        <v>0</v>
-      </c>
-      <c r="U160" s="1">
-        <f t="shared" si="51"/>
-        <v>0</v>
-      </c>
-      <c r="W160" s="1">
-        <f t="shared" si="48"/>
         <v>18866666.666666668</v>
       </c>
       <c r="X160" s="1">
@@ -23370,31 +23487,31 @@
         <v>0</v>
       </c>
       <c r="P161" s="1">
-        <f t="shared" si="46"/>
+        <f t="shared" si="47"/>
         <v>5400000</v>
       </c>
       <c r="Q161" s="1">
-        <f t="shared" si="47"/>
+        <f t="shared" si="48"/>
         <v>11000000</v>
       </c>
       <c r="R161" s="1">
+        <f t="shared" si="53"/>
+        <v>0</v>
+      </c>
+      <c r="S161" s="1">
+        <f t="shared" si="50"/>
+        <v>0</v>
+      </c>
+      <c r="T161" s="1">
+        <f t="shared" si="51"/>
+        <v>0</v>
+      </c>
+      <c r="U161" s="1">
         <f t="shared" si="52"/>
         <v>0</v>
       </c>
-      <c r="S161" s="1">
+      <c r="W161" s="1">
         <f t="shared" si="49"/>
-        <v>0</v>
-      </c>
-      <c r="T161" s="1">
-        <f t="shared" si="50"/>
-        <v>0</v>
-      </c>
-      <c r="U161" s="1">
-        <f t="shared" si="51"/>
-        <v>0</v>
-      </c>
-      <c r="W161" s="1">
-        <f t="shared" si="48"/>
         <v>2733333.3333333335</v>
       </c>
     </row>
